--- a/xlsx/form_o_parties.xlsx
+++ b/xlsx/form_o_parties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\odk_forms_cesc_niassa\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A1E75F-2EDF-40A8-81BA-6CDB5420EEB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C49270-9117-4B6C-8CFD-093F3443DBF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="14040" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="301">
   <si>
     <t>type</t>
   </si>
@@ -859,8 +859,17 @@
     <t>&lt;br/&gt; &lt;h1&gt;Cadeia de Valor de Terra Comunitária&lt;/h1&gt;&lt;br/&gt; &lt;h2&gt;${project}&lt;/h2&gt;&lt;span style="color:#57b055"&gt;${my_form_name}&lt;/span&gt; &lt;br/&gt;</t>
   </si>
   <si>
+    <t>"CESC Niassa"</t>
+  </si>
+  <si>
+    <t>search('enum_names_cesc_niassa')</t>
+  </si>
+  <si>
+    <t>search('assoc_names_cesc_niassa', 'matches', 'post_id', ${post_id})</t>
+  </si>
+  <si>
     <t>&lt;span style="color:#FF0000"&gt;${project}&lt;/span&gt;&lt;br/&gt; &lt;span style="color:#57b055"&gt;${my_form_name}&lt;/span&gt; &lt;br/&gt;
-Este formulário é utilizado para gravar informação sobre as pessoas que querem fazer registo da suas terras familiares ou individuais.
+Este formulário é utilizado para gravar informação sobre as pessoas que querem fazer registo de suas terras familiares ou individuais.
 O registo será feito através da associação da comunidade delimitada, e partilhado com as autoridades cadastrais.
 Devem ser registadas também as pessoas que actuam como testemunhas. 
 Uma instituição também pode se registrar através de pessoa que é seu representante legítimo.  Assim as igrejas, cooperativas, associações, escolas e até instituições do estado podem fazer registo e pedir a emissão dum documento pela associação que representa a comunidade delimitada. Nos casos destas entidades, o documento será uma mera confirmação de ocupação actual e não a prova de acquisição do DUAT. 
@@ -869,25 +878,109 @@
 Por favor deslizar para a frente para continuar.</t>
   </si>
   <si>
-    <t>http://cavateco.terrafirma.co.mz:8080/cesc_niassa/submission</t>
-  </si>
-  <si>
-    <t>"CESC Niassa"</t>
-  </si>
-  <si>
-    <t>search('enum_names_cesc_niassa')</t>
-  </si>
-  <si>
-    <t>search('assoc_names_cesc_niassa', 'matches', 'post_id', ${post_id})</t>
+    <t>registrationgrp</t>
+  </si>
+  <si>
+    <t>Start biometric capture</t>
+  </si>
+  <si>
+    <t>com.simprints.simodkadapter.REGISTER(projectId=${project_id}, moduleId=${module_id}, userId=${user_id})</t>
+  </si>
+  <si>
+    <t>odk-registration-id</t>
+  </si>
+  <si>
+    <t>GUID</t>
+  </si>
+  <si>
+    <t>odk-session-id</t>
+  </si>
+  <si>
+    <t>Simprints session ID:</t>
+  </si>
+  <si>
+    <t>odk-register-biometrics-complete</t>
+  </si>
+  <si>
+    <t>Biometrics complete?</t>
+  </si>
+  <si>
+    <t>odk-exit-reason</t>
+  </si>
+  <si>
+    <t>Exit reason:</t>
+  </si>
+  <si>
+    <t>odk-exit-extra</t>
+  </si>
+  <si>
+    <t>Exit details:</t>
+  </si>
+  <si>
+    <t>intent</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>module_id</t>
+  </si>
+  <si>
+    <t>project_id</t>
+  </si>
+  <si>
+    <t>${deviceid}</t>
+  </si>
+  <si>
+    <t>${assoc_id}</t>
+  </si>
+  <si>
+    <t>"jHcAAHvZzSjuAaQfT3pm"</t>
+  </si>
+  <si>
+    <t>trigger</t>
+  </si>
+  <si>
+    <t>consent_confirmed</t>
+  </si>
+  <si>
+    <t>Confirmação de Consentimento de Pessoas</t>
+  </si>
+  <si>
+    <t>Confirmo que a pessoa deu consentimento para o registo de detalhes pessoais e biométricos</t>
+  </si>
+  <si>
+    <t>http://cavateco.terrafirma.co.mz:8080/sandbox/submission</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1223,463 +1316,487 @@
   </borders>
   <cellStyleXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="240"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="240" applyFill="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="240" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="240"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="240" applyFill="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="240" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="269" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="269" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="270">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2288,38 +2405,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R97"/>
+  <dimension ref="A1:S107"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
+      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="31.59765625" style="24" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="28" customWidth="1"/>
     <col min="3" max="3" width="106" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="24" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="36.75" style="24" customWidth="1"/>
-    <col min="8" max="8" width="36" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.125" style="23" customWidth="1"/>
-    <col min="10" max="10" width="7.625" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="11" style="24"/>
+    <col min="4" max="4" width="27.09765625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="28" style="24" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.8984375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="36.69921875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="36" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.09765625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="7.59765625" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.8984375" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.09765625" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.19921875" style="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.09765625" style="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.19921875" style="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="11" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2330,52 +2448,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="J1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="P1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="s">
         <v>15</v>
       </c>
@@ -2383,7 +2504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="s">
         <v>93</v>
       </c>
@@ -2394,1234 +2515,1429 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="57" t="s">
         <v>79</v>
       </c>
       <c r="B5" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="N5" s="57" t="s">
+      <c r="O5" s="57" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="89" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="90" t="s">
         <v>269</v>
       </c>
-      <c r="N6" s="93" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="92" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="57" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="N7" s="57" t="s">
+      <c r="O7" s="57" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="97" t="s">
+        <v>290</v>
+      </c>
+      <c r="O8" s="99" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="97" t="s">
+        <v>292</v>
+      </c>
+      <c r="O9" s="100" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B10" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="L8" s="57" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="M10" s="57" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+    <row r="11" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B11" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="89" t="s">
+      <c r="P11" s="89" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="57" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+    <row r="12" spans="1:19" s="57" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B12" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="91" t="s">
+      <c r="C12" s="91" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="D12" s="91"/>
+    </row>
+    <row r="13" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="56"/>
-    </row>
-    <row r="12" spans="1:18" s="31" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="B13" s="56"/>
+    </row>
+    <row r="14" spans="1:19" s="31" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B14" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="92" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="C14" s="93" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" s="93"/>
+    </row>
+    <row r="15" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B15" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C15" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="D15" s="49"/>
+      <c r="K15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="93" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="M15" s="92" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B16" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="75" t="s">
+      <c r="D16" s="1"/>
+      <c r="H16" s="75" t="s">
         <v>225</v>
       </c>
-      <c r="L14" s="31" t="s">
+      <c r="M16" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+    <row r="17" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B17" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C17" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="I17" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="K17" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+    <row r="18" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B18" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C18" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="I18" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="J16" s="31" t="s">
+      <c r="K18" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="19" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="32"/>
-    </row>
-    <row r="18" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="B19" s="32"/>
+    </row>
+    <row r="20" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B20" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C20" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="D20" s="49"/>
+      <c r="K20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="31" t="s">
+      <c r="M20" s="31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+    <row r="21" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B21" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C21" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="J19" s="31" t="s">
+      <c r="D21" s="39"/>
+      <c r="K21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="31" t="s">
+      <c r="M21" s="31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+    <row r="22" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B22" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C22" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D22" s="39"/>
+      <c r="E22" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="J20" s="31" t="s">
+      <c r="K22" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="31" t="s">
+      <c r="M22" s="31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+    <row r="23" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B23" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C23" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D23" s="39"/>
+      <c r="E23" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="K23" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="31" t="s">
+      <c r="M23" s="31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="31" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="72" t="s">
+    <row r="24" spans="1:19" s="31" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B24" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C24" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="85" t="s">
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="85" t="s">
         <v>266</v>
       </c>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72" t="s">
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="72"/>
-      <c r="L22" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="M22" s="72"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="68" t="s">
+      <c r="L24" s="72"/>
+      <c r="M24" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="N24" s="72"/>
+    </row>
+    <row r="25" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="97" t="s">
+        <v>291</v>
+      </c>
+      <c r="O25" s="99" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B26" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C26" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D26" s="23"/>
+      <c r="E26" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="H23" s="23"/>
-      <c r="J23" s="86" t="s">
+      <c r="I26" s="23"/>
+      <c r="K26" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="24" t="s">
+      <c r="M26" s="24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+    <row r="27" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B27" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C27" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="D27" s="48"/>
+      <c r="H27" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="I24" s="24"/>
-    </row>
-    <row r="25" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="70" t="s">
+      <c r="J27" s="24"/>
+    </row>
+    <row r="28" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B28" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="C25" s="74" t="s">
+      <c r="C28" s="74" t="s">
         <v>221</v>
       </c>
-      <c r="G25" s="31"/>
-      <c r="I25" s="24"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="71" t="s">
+      <c r="D28" s="74"/>
+      <c r="H28" s="31"/>
+      <c r="J28" s="24"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B29" s="69" t="s">
         <v>222</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C29" s="74" t="s">
         <v>223</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="D29" s="74"/>
+      <c r="E29" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="G26" s="31"/>
-      <c r="I26" s="24"/>
-      <c r="L26" s="72"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="77" t="s">
-        <v>234</v>
-      </c>
-      <c r="C27" s="84" t="s">
-        <v>267</v>
-      </c>
-      <c r="D27" s="67"/>
-      <c r="G27" s="78" t="s">
-        <v>235</v>
-      </c>
-      <c r="I27" s="24"/>
-      <c r="L27" s="72"/>
-      <c r="P27" s="78" t="s">
-        <v>256</v>
-      </c>
-      <c r="R27" s="78" t="s">
+      <c r="H29" s="31"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="102" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="77" t="s">
-        <v>233</v>
-      </c>
-      <c r="C28" s="84" t="s">
-        <v>267</v>
-      </c>
-      <c r="D28" s="67"/>
-      <c r="G28" s="78" t="s">
-        <v>236</v>
-      </c>
-      <c r="I28" s="24"/>
-      <c r="L28" s="72"/>
-      <c r="P28" s="78" t="s">
-        <v>257</v>
-      </c>
-      <c r="R28" s="78" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="77" t="s">
-        <v>231</v>
-      </c>
-      <c r="C29" s="84" t="s">
-        <v>267</v>
-      </c>
-      <c r="D29" s="67"/>
-      <c r="G29" s="78" t="s">
-        <v>237</v>
-      </c>
-      <c r="I29" s="24"/>
-      <c r="L29" s="72"/>
-      <c r="P29" s="78" t="s">
-        <v>258</v>
-      </c>
-      <c r="R29" s="78" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M29" s="72"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="76" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="77" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C30" s="84" t="s">
         <v>267</v>
       </c>
-      <c r="D30" s="67"/>
-      <c r="G30" s="78" t="s">
-        <v>238</v>
-      </c>
-      <c r="I30" s="24"/>
-      <c r="L30" s="72"/>
-      <c r="P30" s="78" t="s">
-        <v>255</v>
-      </c>
-      <c r="R30" s="78" t="s">
+      <c r="D30" s="84"/>
+      <c r="E30" s="67"/>
+      <c r="H30" s="78" t="s">
+        <v>235</v>
+      </c>
+      <c r="J30" s="24"/>
+      <c r="M30" s="72"/>
+      <c r="Q30" s="78" t="s">
+        <v>256</v>
+      </c>
+      <c r="S30" s="78" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="76" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="77" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C31" s="84" t="s">
         <v>267</v>
       </c>
-      <c r="D31" s="67"/>
-      <c r="G31" s="78" t="s">
-        <v>240</v>
-      </c>
-      <c r="I31" s="24"/>
-      <c r="L31" s="72"/>
-      <c r="P31" s="87" t="s">
-        <v>268</v>
-      </c>
-      <c r="R31" s="78" t="s">
+      <c r="D31" s="84"/>
+      <c r="E31" s="67"/>
+      <c r="H31" s="78" t="s">
+        <v>236</v>
+      </c>
+      <c r="J31" s="24"/>
+      <c r="M31" s="72"/>
+      <c r="Q31" s="78" t="s">
+        <v>257</v>
+      </c>
+      <c r="S31" s="78" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="76" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="77" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C32" s="84" t="s">
         <v>267</v>
       </c>
-      <c r="D32" s="67"/>
-      <c r="G32" s="78" t="s">
-        <v>242</v>
-      </c>
-      <c r="I32" s="24"/>
-      <c r="L32" s="72"/>
-      <c r="P32" s="78" t="s">
+      <c r="D32" s="84"/>
+      <c r="E32" s="67"/>
+      <c r="H32" s="78" t="s">
+        <v>237</v>
+      </c>
+      <c r="J32" s="24"/>
+      <c r="M32" s="72"/>
+      <c r="Q32" s="78" t="s">
         <v>258</v>
       </c>
-      <c r="R32" s="78" t="s">
+      <c r="S32" s="78" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="76" t="s">
         <v>26</v>
       </c>
       <c r="B33" s="77" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C33" s="84" t="s">
         <v>267</v>
       </c>
-      <c r="D33" s="67"/>
-      <c r="G33" s="78" t="s">
-        <v>244</v>
-      </c>
-      <c r="I33" s="24"/>
-      <c r="L33" s="72"/>
-      <c r="P33" s="78" t="s">
-        <v>258</v>
-      </c>
-      <c r="R33" s="78" t="s">
+      <c r="D33" s="84"/>
+      <c r="E33" s="67"/>
+      <c r="H33" s="78" t="s">
+        <v>238</v>
+      </c>
+      <c r="J33" s="24"/>
+      <c r="M33" s="72"/>
+      <c r="Q33" s="78" t="s">
+        <v>255</v>
+      </c>
+      <c r="S33" s="78" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="76" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="77" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C34" s="84" t="s">
         <v>267</v>
       </c>
-      <c r="D34" s="67"/>
-      <c r="G34" s="78" t="s">
-        <v>246</v>
-      </c>
-      <c r="I34" s="24"/>
-      <c r="L34" s="72"/>
-      <c r="P34" s="78" t="s">
-        <v>258</v>
-      </c>
-      <c r="R34" s="78" t="s">
+      <c r="D34" s="84"/>
+      <c r="E34" s="67"/>
+      <c r="H34" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="J34" s="24"/>
+      <c r="M34" s="72"/>
+      <c r="Q34" s="87" t="s">
+        <v>268</v>
+      </c>
+      <c r="S34" s="78" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="76" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="77" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C35" s="84" t="s">
         <v>267</v>
       </c>
-      <c r="D35" s="67"/>
-      <c r="G35" s="78" t="s">
-        <v>248</v>
-      </c>
-      <c r="I35" s="24"/>
-      <c r="L35" s="72"/>
-      <c r="P35" s="78" t="s">
+      <c r="D35" s="84"/>
+      <c r="E35" s="67"/>
+      <c r="H35" s="78" t="s">
+        <v>242</v>
+      </c>
+      <c r="J35" s="24"/>
+      <c r="M35" s="72"/>
+      <c r="Q35" s="78" t="s">
         <v>258</v>
       </c>
-      <c r="R35" s="78" t="s">
+      <c r="S35" s="78" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="76" t="s">
         <v>26</v>
       </c>
       <c r="B36" s="77" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C36" s="84" t="s">
         <v>267</v>
       </c>
-      <c r="D36" s="67"/>
-      <c r="G36" s="78" t="s">
-        <v>250</v>
-      </c>
-      <c r="I36" s="24"/>
-      <c r="L36" s="72"/>
-      <c r="P36" s="78" t="s">
+      <c r="D36" s="84"/>
+      <c r="E36" s="67"/>
+      <c r="H36" s="78" t="s">
+        <v>244</v>
+      </c>
+      <c r="J36" s="24"/>
+      <c r="M36" s="72"/>
+      <c r="Q36" s="78" t="s">
         <v>258</v>
       </c>
-      <c r="R36" s="78" t="s">
+      <c r="S36" s="78" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="76" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="77" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C37" s="84" t="s">
         <v>267</v>
       </c>
-      <c r="D37" s="67"/>
-      <c r="G37" s="78" t="s">
-        <v>253</v>
-      </c>
-      <c r="I37" s="24"/>
-      <c r="L37" s="72"/>
-      <c r="P37" s="78" t="s">
+      <c r="D37" s="84"/>
+      <c r="E37" s="67"/>
+      <c r="H37" s="78" t="s">
+        <v>246</v>
+      </c>
+      <c r="J37" s="24"/>
+      <c r="M37" s="72"/>
+      <c r="Q37" s="78" t="s">
         <v>258</v>
       </c>
-      <c r="R37" s="78" t="s">
+      <c r="S37" s="78" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="76" t="s">
         <v>26</v>
       </c>
       <c r="B38" s="77" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C38" s="84" t="s">
         <v>267</v>
       </c>
-      <c r="D38" s="67"/>
-      <c r="G38" s="78" t="s">
+      <c r="D38" s="84"/>
+      <c r="E38" s="67"/>
+      <c r="H38" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="J38" s="24"/>
+      <c r="M38" s="72"/>
+      <c r="Q38" s="78" t="s">
+        <v>258</v>
+      </c>
+      <c r="S38" s="78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="77" t="s">
+        <v>249</v>
+      </c>
+      <c r="C39" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="D39" s="84"/>
+      <c r="E39" s="67"/>
+      <c r="H39" s="78" t="s">
+        <v>250</v>
+      </c>
+      <c r="J39" s="24"/>
+      <c r="M39" s="72"/>
+      <c r="Q39" s="78" t="s">
+        <v>258</v>
+      </c>
+      <c r="S39" s="78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="77" t="s">
+        <v>251</v>
+      </c>
+      <c r="C40" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="D40" s="84"/>
+      <c r="E40" s="67"/>
+      <c r="H40" s="78" t="s">
+        <v>253</v>
+      </c>
+      <c r="J40" s="24"/>
+      <c r="M40" s="72"/>
+      <c r="Q40" s="78" t="s">
+        <v>258</v>
+      </c>
+      <c r="S40" s="78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="77" t="s">
+        <v>252</v>
+      </c>
+      <c r="C41" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="D41" s="84"/>
+      <c r="E41" s="67"/>
+      <c r="H41" s="78" t="s">
         <v>254</v>
       </c>
-      <c r="I38" s="24"/>
-      <c r="L38" s="72"/>
-      <c r="P38" s="78" t="s">
+      <c r="J41" s="24"/>
+      <c r="M41" s="72"/>
+      <c r="Q41" s="78" t="s">
         <v>258</v>
       </c>
-      <c r="R38" s="78" t="s">
+      <c r="S41" s="78" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
+    <row r="42" spans="1:19" s="102" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="B42" s="104" t="s">
+        <v>297</v>
+      </c>
+      <c r="C42" s="105" t="s">
+        <v>298</v>
+      </c>
+      <c r="D42" s="105"/>
+      <c r="G42" s="105" t="s">
+        <v>299</v>
+      </c>
+      <c r="K42" s="102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B43" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C43" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="J39" s="31" t="s">
+      <c r="K43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L39" s="31" t="s">
+      <c r="M43" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="M39" s="42" t="s">
+      <c r="N43" s="42" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="44" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B44" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G40" s="83"/>
-      <c r="L40" s="31" t="s">
+      <c r="D44" s="1"/>
+      <c r="H44" s="83"/>
+      <c r="M44" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="J41" s="31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="J42" s="31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="81" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="J44" s="31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K45" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K46" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="81" t="s">
+        <v>259</v>
+      </c>
+      <c r="D47" s="81"/>
+    </row>
+    <row r="48" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="39"/>
+      <c r="K48" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="39" t="s">
+      <c r="C49" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="J45" s="31" t="s">
+      <c r="D49" s="39"/>
+      <c r="K49" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="50" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="32"/>
-    </row>
-    <row r="47" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="B50" s="32"/>
+    </row>
+    <row r="51" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B51" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G47" s="83"/>
-      <c r="L47" s="31" t="s">
+      <c r="D51" s="1"/>
+      <c r="H51" s="83"/>
+      <c r="M51" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="67" t="s">
+    <row r="52" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="67" t="s">
         <v>213</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B52" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C52" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="D48" s="67" t="s">
+      <c r="E52" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="J48" s="31" t="s">
+      <c r="K52" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L48" s="31" t="s">
+      <c r="M52" s="31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="68" t="s">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="68" t="s">
         <v>212</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B53" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="82" t="s">
+      <c r="C53" s="82" t="s">
         <v>260</v>
       </c>
-      <c r="D49" s="67" t="s">
+      <c r="D53" s="82"/>
+      <c r="E53" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="J49" s="24" t="s">
+      <c r="K53" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="L49" s="24" t="s">
+      <c r="M53" s="24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
+    <row r="54" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B54" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C54" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="H50" s="23" t="s">
+      <c r="I54" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="I50" s="23" t="s">
+      <c r="J54" s="23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="55" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="32"/>
-    </row>
-    <row r="52" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="67" t="s">
+      <c r="B55" s="32"/>
+    </row>
+    <row r="56" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B56" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C56" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="67" t="s">
+      <c r="E56" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="J52" s="31" t="s">
+      <c r="K56" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L52" s="31" t="s">
+      <c r="M56" s="31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
+    <row r="57" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B57" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="39" t="s">
+      <c r="C57" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="G53" s="31" t="s">
+      <c r="D57" s="39"/>
+      <c r="H57" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="H53" s="31" t="s">
+      <c r="I57" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="J53" s="37" t="s">
+      <c r="K57" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L53" s="31" t="s">
+      <c r="M57" s="31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="67" t="s">
+    <row r="58" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="67" t="s">
         <v>215</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B58" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C58" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D54" s="67" t="s">
+      <c r="E58" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="G54" s="31" t="s">
+      <c r="H58" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="J54" s="37" t="s">
+      <c r="K58" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L54" s="31" t="s">
+      <c r="M58" s="31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="44" t="s">
+    <row r="59" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="46" t="s">
+      <c r="B59" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="J55" s="37"/>
-      <c r="N55" s="47" t="s">
+      <c r="K59" s="37"/>
+      <c r="O59" s="47" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="31" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="44" t="s">
+    <row r="60" spans="1:15" s="31" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="45" t="s">
+      <c r="B60" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="C56" s="79" t="s">
+      <c r="C60" s="79" t="s">
         <v>261</v>
       </c>
-      <c r="G56" s="50" t="s">
+      <c r="D60" s="79"/>
+      <c r="H60" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="J56" s="37"/>
-    </row>
-    <row r="57" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="K60" s="37"/>
+    </row>
+    <row r="61" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B61" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G57" s="83"/>
-      <c r="L57" s="31" t="s">
+      <c r="D61" s="1"/>
+      <c r="H61" s="83"/>
+      <c r="M61" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="67" t="s">
+    <row r="62" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="67" t="s">
         <v>216</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="B62" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="C58" s="39" t="s">
+      <c r="C62" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="D58" s="67" t="s">
+      <c r="D62" s="39"/>
+      <c r="E62" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="J58" s="31" t="s">
+      <c r="K62" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L58" s="31" t="s">
+      <c r="M62" s="31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
+    <row r="63" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B59" s="32" t="s">
+      <c r="B63" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="81" t="s">
+      <c r="C63" s="81" t="s">
         <v>262</v>
       </c>
-      <c r="H59" s="51" t="s">
+      <c r="D63" s="81"/>
+      <c r="I63" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="I59" s="31" t="s">
+      <c r="J63" s="31" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
+    <row r="64" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B60" s="32" t="s">
+      <c r="B64" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="C60" s="39" t="s">
+      <c r="C64" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="H60" s="31" t="s">
+      <c r="D64" s="39"/>
+      <c r="I64" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="I60" s="31" t="s">
+      <c r="J64" s="31" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
+    <row r="65" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B61" s="32" t="s">
+      <c r="B65" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="C61" s="39" t="s">
+      <c r="C65" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="H61" s="31" t="s">
+      <c r="D65" s="39"/>
+      <c r="I65" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="L61" s="31" t="s">
+      <c r="M65" s="31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="31" t="s">
+    <row r="66" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B66" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C62" s="39" t="s">
+      <c r="C66" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="H62" s="49" t="s">
+      <c r="D66" s="39"/>
+      <c r="I66" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="L62" s="31" t="s">
+      <c r="M66" s="31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="67" t="s">
+    <row r="67" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="B63" s="32" t="s">
+      <c r="B67" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C63" s="31" t="s">
+      <c r="C67" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="D63" s="67" t="s">
+      <c r="E67" s="67" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="68" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B64" s="32"/>
-    </row>
-    <row r="65" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="67" t="s">
+      <c r="B68" s="32"/>
+    </row>
+    <row r="69" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="B69" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="C65" s="39" t="s">
+      <c r="C69" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="D65" s="67" t="s">
+      <c r="D69" s="39"/>
+      <c r="E69" s="67" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="39" t="s">
+    <row r="70" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="38" t="s">
+      <c r="B70" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C66" s="81" t="s">
+      <c r="C70" s="81" t="s">
         <v>263</v>
       </c>
-      <c r="G66" s="39" t="s">
+      <c r="D70" s="81"/>
+      <c r="H70" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="H66" s="31" t="s">
+      <c r="I70" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="L66" s="31" t="s">
+      <c r="M70" s="31" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="39" t="s">
+    <row r="71" spans="1:16" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B71" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="C67" s="80" t="s">
+      <c r="C71" s="80" t="s">
         <v>264</v>
       </c>
-      <c r="G67" s="39"/>
-      <c r="O67" s="43" t="s">
+      <c r="D71" s="80"/>
+      <c r="H71" s="39"/>
+      <c r="P71" s="43" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="68" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B68" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C68" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="J68" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="M68" s="42" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B70" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="C70" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="G70" s="39"/>
-      <c r="O70" s="43" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B71" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="C71" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="J71" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="M71" s="42" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="31" t="s">
         <v>27</v>
       </c>
       <c r="B72" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" s="23"/>
+      <c r="K72" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N72" s="42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" s="94" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="C73" s="95" t="s">
+        <v>277</v>
+      </c>
+      <c r="D73" s="96" t="s">
+        <v>278</v>
+      </c>
+      <c r="K73" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M73" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" s="94" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" s="101" t="s">
+        <v>279</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="D74" s="23"/>
+      <c r="K74" s="31"/>
+    </row>
+    <row r="75" spans="1:16" s="94" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="D75" s="23"/>
+      <c r="K75" s="31"/>
+    </row>
+    <row r="76" spans="1:16" s="94" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="D76" s="23"/>
+      <c r="K76" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" s="94" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="D77" s="23"/>
+      <c r="K77" s="31"/>
+    </row>
+    <row r="78" spans="1:16" s="94" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="D78" s="23"/>
+    </row>
+    <row r="79" spans="1:16" s="94" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="38"/>
+    </row>
+    <row r="80" spans="1:16" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B80" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="C80" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="D80" s="48"/>
+      <c r="H80" s="39"/>
+      <c r="P80" s="43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="D81" s="40"/>
+      <c r="K81" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N81" s="42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B82" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="40" t="s">
+      <c r="C82" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="J72" s="52" t="s">
+      <c r="D82" s="40"/>
+      <c r="K82" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="M72" s="42" t="s">
+      <c r="N82" s="42" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="73" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="31" t="s">
+    <row r="83" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B73" s="38" t="s">
+      <c r="B83" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="C73" s="81" t="s">
+      <c r="C83" s="81" t="s">
         <v>265</v>
       </c>
-      <c r="H73" s="39" t="s">
+      <c r="D83" s="81"/>
+      <c r="I83" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="I73" s="41" t="s">
+      <c r="J83" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="L73" s="31" t="s">
+      <c r="M83" s="31" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="39" t="s">
+    <row r="84" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B74" s="38" t="s">
+      <c r="B84" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="C74" s="39" t="s">
+      <c r="C84" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="H74" s="39" t="s">
+      <c r="D84" s="39"/>
+      <c r="I84" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="I74" s="41" t="s">
+      <c r="J84" s="41" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="24" t="s">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B75" s="27" t="s">
+      <c r="B85" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="32"/>
-    </row>
-    <row r="77" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="32"/>
-    </row>
-    <row r="78" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="32"/>
-    </row>
-    <row r="79" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="32"/>
-    </row>
-    <row r="80" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="32"/>
-    </row>
-    <row r="81" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="32"/>
-    </row>
-    <row r="82" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="32"/>
-    </row>
-    <row r="83" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="32"/>
-    </row>
-    <row r="84" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="32"/>
-    </row>
-    <row r="85" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="32"/>
-    </row>
-    <row r="86" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B86" s="32"/>
     </row>
-    <row r="87" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B87" s="32"/>
     </row>
-    <row r="88" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B88" s="32"/>
     </row>
-    <row r="89" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B89" s="32"/>
     </row>
-    <row r="90" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B90" s="32"/>
     </row>
-    <row r="91" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B91" s="32"/>
     </row>
-    <row r="92" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B92" s="32"/>
     </row>
-    <row r="93" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B93" s="32"/>
     </row>
-    <row r="94" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B94" s="32"/>
     </row>
-    <row r="95" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B95" s="32"/>
     </row>
-    <row r="96" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B96" s="32"/>
     </row>
-    <row r="97" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B97" s="32"/>
+    </row>
+    <row r="98" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="32"/>
+    </row>
+    <row r="99" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="32"/>
+    </row>
+    <row r="100" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="32"/>
+    </row>
+    <row r="101" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="32"/>
+    </row>
+    <row r="102" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="32"/>
+    </row>
+    <row r="103" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="32"/>
+    </row>
+    <row r="104" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="32"/>
+    </row>
+    <row r="105" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="32"/>
+    </row>
+    <row r="106" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="32"/>
+    </row>
+    <row r="107" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3633,25 +3949,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" style="7" customWidth="1"/>
     <col min="2" max="2" width="30" style="11" customWidth="1"/>
-    <col min="3" max="3" width="46.375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="28.875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="5"/>
-    <col min="7" max="16384" width="10.875" style="7"/>
+    <col min="3" max="3" width="46.3984375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="28.8984375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="17.3984375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.8984375" style="5"/>
+    <col min="7" max="16384" width="10.8984375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3672,7 +3988,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="10"/>
       <c r="C2" s="1"/>
@@ -3681,7 +3997,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>52</v>
       </c>
@@ -3692,7 +4008,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>52</v>
       </c>
@@ -3703,7 +4019,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>52</v>
       </c>
@@ -3714,7 +4030,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>52</v>
       </c>
@@ -3725,7 +4041,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>52</v>
       </c>
@@ -3736,7 +4052,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>52</v>
       </c>
@@ -3747,7 +4063,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>52</v>
       </c>
@@ -3758,7 +4074,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>52</v>
       </c>
@@ -3769,7 +4085,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>52</v>
       </c>
@@ -3780,7 +4096,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>52</v>
       </c>
@@ -3791,10 +4107,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="54" t="s">
         <v>78</v>
       </c>
@@ -3805,17 +4121,17 @@
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="54"/>
       <c r="B16" s="56"/>
       <c r="C16" s="54"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="54"/>
       <c r="B17" s="55"/>
       <c r="C17" s="54"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="54" t="s">
         <v>17</v>
       </c>
@@ -3826,7 +4142,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="54" t="s">
         <v>17</v>
       </c>
@@ -3852,17 +4168,17 @@
       <selection activeCell="B831" sqref="B831"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" style="61" customWidth="1"/>
-    <col min="2" max="2" width="26.125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="61" customWidth="1"/>
+    <col min="2" max="2" width="26.09765625" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" style="61" customWidth="1"/>
     <col min="4" max="5" width="9" style="61"/>
-    <col min="6" max="6" width="34.875" style="61" customWidth="1"/>
+    <col min="6" max="6" width="34.8984375" style="61" customWidth="1"/>
     <col min="7" max="16384" width="9" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
         <v>178</v>
       </c>
@@ -3885,1642 +4201,1642 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="61" t="s">
         <v>180</v>
       </c>
@@ -5529,7 +5845,7 @@
       <c r="D329" s="62"/>
       <c r="E329" s="62"/>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="61" t="s">
         <v>180</v>
       </c>
@@ -5538,7 +5854,7 @@
       <c r="D330" s="62"/>
       <c r="E330" s="62"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="61" t="s">
         <v>180</v>
       </c>
@@ -5547,7 +5863,7 @@
       <c r="D331" s="62"/>
       <c r="E331" s="62"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="61" t="s">
         <v>180</v>
       </c>
@@ -5556,7 +5872,7 @@
       <c r="D332" s="62"/>
       <c r="E332" s="62"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="61" t="s">
         <v>180</v>
       </c>
@@ -5565,7 +5881,7 @@
       <c r="D333" s="62"/>
       <c r="E333" s="62"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="61" t="s">
         <v>180</v>
       </c>
@@ -5574,7 +5890,7 @@
       <c r="D334" s="62"/>
       <c r="E334" s="62"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="61" t="s">
         <v>180</v>
       </c>
@@ -5583,7 +5899,7 @@
       <c r="D335" s="62"/>
       <c r="E335" s="62"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="61" t="s">
         <v>180</v>
       </c>
@@ -5592,7 +5908,7 @@
       <c r="D336" s="62"/>
       <c r="E336" s="62"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="61" t="s">
         <v>180</v>
       </c>
@@ -5601,7 +5917,7 @@
       <c r="D337" s="62"/>
       <c r="E337" s="62"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="61" t="s">
         <v>180</v>
       </c>
@@ -5610,7 +5926,7 @@
       <c r="D338" s="62"/>
       <c r="E338" s="62"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="61" t="s">
         <v>180</v>
       </c>
@@ -5619,7 +5935,7 @@
       <c r="D339" s="62"/>
       <c r="E339" s="62"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="61" t="s">
         <v>180</v>
       </c>
@@ -5628,7 +5944,7 @@
       <c r="D340" s="62"/>
       <c r="E340" s="62"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="61" t="s">
         <v>180</v>
       </c>
@@ -5637,7 +5953,7 @@
       <c r="D341" s="62"/>
       <c r="E341" s="62"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="61" t="s">
         <v>180</v>
       </c>
@@ -5646,7 +5962,7 @@
       <c r="D342" s="62"/>
       <c r="E342" s="62"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="61" t="s">
         <v>180</v>
       </c>
@@ -5655,7 +5971,7 @@
       <c r="D343" s="62"/>
       <c r="E343" s="62"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="61" t="s">
         <v>180</v>
       </c>
@@ -5664,7 +5980,7 @@
       <c r="D344" s="62"/>
       <c r="E344" s="62"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="61" t="s">
         <v>180</v>
       </c>
@@ -5673,7 +5989,7 @@
       <c r="D345" s="62"/>
       <c r="E345" s="62"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="61" t="s">
         <v>180</v>
       </c>
@@ -5682,7 +5998,7 @@
       <c r="D346" s="62"/>
       <c r="E346" s="62"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="61" t="s">
         <v>180</v>
       </c>
@@ -5691,7 +6007,7 @@
       <c r="D347" s="62"/>
       <c r="E347" s="62"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="61" t="s">
         <v>180</v>
       </c>
@@ -5700,7 +6016,7 @@
       <c r="D348" s="62"/>
       <c r="E348" s="62"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="61" t="s">
         <v>180</v>
       </c>
@@ -5709,7 +6025,7 @@
       <c r="D349" s="62"/>
       <c r="E349" s="62"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="61" t="s">
         <v>180</v>
       </c>
@@ -5718,7 +6034,7 @@
       <c r="D350" s="62"/>
       <c r="E350" s="62"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="61" t="s">
         <v>180</v>
       </c>
@@ -5727,7 +6043,7 @@
       <c r="D351" s="62"/>
       <c r="E351" s="62"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="61" t="s">
         <v>180</v>
       </c>
@@ -5736,7 +6052,7 @@
       <c r="D352" s="62"/>
       <c r="E352" s="62"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="61" t="s">
         <v>180</v>
       </c>
@@ -5745,7 +6061,7 @@
       <c r="D353" s="62"/>
       <c r="E353" s="62"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="61" t="s">
         <v>180</v>
       </c>
@@ -5754,7 +6070,7 @@
       <c r="D354" s="62"/>
       <c r="E354" s="62"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="61" t="s">
         <v>180</v>
       </c>
@@ -5763,7 +6079,7 @@
       <c r="D355" s="62"/>
       <c r="E355" s="62"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="61" t="s">
         <v>180</v>
       </c>
@@ -5772,7 +6088,7 @@
       <c r="D356" s="62"/>
       <c r="E356" s="62"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="61" t="s">
         <v>180</v>
       </c>
@@ -5781,7 +6097,7 @@
       <c r="D357" s="62"/>
       <c r="E357" s="62"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="61" t="s">
         <v>180</v>
       </c>
@@ -5790,7 +6106,7 @@
       <c r="D358" s="62"/>
       <c r="E358" s="62"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="61" t="s">
         <v>180</v>
       </c>
@@ -5799,7 +6115,7 @@
       <c r="D359" s="62"/>
       <c r="E359" s="62"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="61" t="s">
         <v>180</v>
       </c>
@@ -5808,7 +6124,7 @@
       <c r="D360" s="62"/>
       <c r="E360" s="62"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="61" t="s">
         <v>180</v>
       </c>
@@ -5817,7 +6133,7 @@
       <c r="D361" s="62"/>
       <c r="E361" s="62"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="61" t="s">
         <v>180</v>
       </c>
@@ -5826,7 +6142,7 @@
       <c r="D362" s="62"/>
       <c r="E362" s="62"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="61" t="s">
         <v>180</v>
       </c>
@@ -5835,7 +6151,7 @@
       <c r="D363" s="62"/>
       <c r="E363" s="62"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="61" t="s">
         <v>180</v>
       </c>
@@ -5844,7 +6160,7 @@
       <c r="D364" s="62"/>
       <c r="E364" s="62"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="61" t="s">
         <v>180</v>
       </c>
@@ -5853,7 +6169,7 @@
       <c r="D365" s="62"/>
       <c r="E365" s="62"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="61" t="s">
         <v>180</v>
       </c>
@@ -5862,7 +6178,7 @@
       <c r="D366" s="62"/>
       <c r="E366" s="62"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="61" t="s">
         <v>180</v>
       </c>
@@ -5871,7 +6187,7 @@
       <c r="D367" s="62"/>
       <c r="E367" s="62"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="61" t="s">
         <v>180</v>
       </c>
@@ -5880,7 +6196,7 @@
       <c r="D368" s="62"/>
       <c r="E368" s="62"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="61" t="s">
         <v>180</v>
       </c>
@@ -5889,7 +6205,7 @@
       <c r="D369" s="62"/>
       <c r="E369" s="62"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="61" t="s">
         <v>180</v>
       </c>
@@ -5898,7 +6214,7 @@
       <c r="D370" s="62"/>
       <c r="E370" s="62"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="61" t="s">
         <v>180</v>
       </c>
@@ -5907,7 +6223,7 @@
       <c r="D371" s="62"/>
       <c r="E371" s="62"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="61" t="s">
         <v>180</v>
       </c>
@@ -5916,7 +6232,7 @@
       <c r="D372" s="62"/>
       <c r="E372" s="62"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="61" t="s">
         <v>180</v>
       </c>
@@ -5925,7 +6241,7 @@
       <c r="D373" s="62"/>
       <c r="E373" s="62"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="61" t="s">
         <v>180</v>
       </c>
@@ -5934,7 +6250,7 @@
       <c r="D374" s="62"/>
       <c r="E374" s="62"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="61" t="s">
         <v>180</v>
       </c>
@@ -5943,7 +6259,7 @@
       <c r="D375" s="62"/>
       <c r="E375" s="62"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="61" t="s">
         <v>180</v>
       </c>
@@ -5952,7 +6268,7 @@
       <c r="D376" s="62"/>
       <c r="E376" s="62"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="61" t="s">
         <v>180</v>
       </c>
@@ -5961,7 +6277,7 @@
       <c r="D377" s="62"/>
       <c r="E377" s="62"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="61" t="s">
         <v>180</v>
       </c>
@@ -5970,2368 +6286,2368 @@
       <c r="D378" s="62"/>
       <c r="E378" s="62"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A388" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A389" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A390" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A391" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A393" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A396" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A398" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A399" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A400" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A402" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A403" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A404" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A405" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A406" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A407" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A408" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A409" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A410" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A411" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A412" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A413" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A414" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A415" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A417" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A418" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A419" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A420" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A421" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A422" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A423" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A424" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A425" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A426" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A427" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A428" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A429" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A430" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A431" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A432" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A433" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A434" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A435" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A436" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A437" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A438" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A439" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A440" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A441" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A442" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A443" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A444" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A445" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A446" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A447" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A448" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A449" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A450" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A451" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A452" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A453" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A454" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A455" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A456" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A457" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A458" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A459" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A460" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A461" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A462" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A463" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A464" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A465" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A466" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A467" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A468" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A469" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A470" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A471" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A472" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A473" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A474" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A475" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A476" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A477" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A478" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A479" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A480" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A481" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A482" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A483" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A484" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A485" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A486" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A487" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A488" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A489" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A490" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A491" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A492" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A493" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A494" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A495" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A496" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A497" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A498" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A499" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A500" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A501" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A502" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A503" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A504" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A505" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A506" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A507" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A508" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A509" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A510" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A511" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A512" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A513" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A514" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A515" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A516" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A517" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A518" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A519" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A520" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A521" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A522" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A523" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A524" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A525" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A526" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A527" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A528" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A529" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A530" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A531" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A532" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A533" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A534" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A535" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A536" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A537" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A538" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A539" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A540" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A541" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A542" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A543" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A544" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A545" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A546" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A547" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A548" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A549" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A550" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A551" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A552" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A553" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A554" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A555" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A556" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A557" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A558" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A559" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A560" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A561" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A562" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A563" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A564" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A565" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A566" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A567" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A568" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A569" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A570" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A571" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A572" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A573" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A574" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A575" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A576" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" s="61" t="s">
         <v>181</v>
       </c>
       <c r="B589" s="63"/>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" s="61" t="s">
         <v>181</v>
       </c>
       <c r="B590" s="63"/>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" s="61" t="s">
         <v>181</v>
       </c>
       <c r="B591" s="63"/>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592" s="61" t="s">
         <v>181</v>
       </c>
       <c r="B592" s="63"/>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593" s="61" t="s">
         <v>182</v>
       </c>
       <c r="B593" s="63"/>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594" s="61" t="s">
         <v>182</v>
       </c>
       <c r="B594" s="63"/>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595" s="61" t="s">
         <v>182</v>
       </c>
       <c r="B595" s="63"/>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" s="61" t="s">
         <v>183</v>
       </c>
       <c r="B596" s="63"/>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" s="61" t="s">
         <v>183</v>
       </c>
       <c r="B597" s="63"/>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" s="61" t="s">
         <v>184</v>
       </c>
       <c r="B598" s="63"/>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" s="61" t="s">
         <v>184</v>
       </c>
       <c r="B599" s="63"/>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" s="61" t="s">
         <v>184</v>
       </c>
       <c r="B600" s="63"/>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601" s="61" t="s">
         <v>184</v>
       </c>
       <c r="B601" s="63"/>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602" s="61" t="s">
         <v>184</v>
       </c>
       <c r="B602" s="63"/>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603" s="61" t="s">
         <v>184</v>
       </c>
       <c r="B603" s="63"/>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604" s="61" t="s">
         <v>184</v>
       </c>
       <c r="B604" s="63"/>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605" s="61" t="s">
         <v>184</v>
       </c>
       <c r="B605" s="63"/>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606" s="61" t="s">
         <v>184</v>
       </c>
       <c r="B606" s="63"/>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A607" s="61" t="s">
         <v>184</v>
       </c>
       <c r="B607" s="63"/>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608" s="61" t="s">
         <v>184</v>
       </c>
       <c r="B608" s="63"/>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" s="61" t="s">
         <v>185</v>
       </c>
       <c r="B609" s="63"/>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" s="61" t="s">
         <v>185</v>
       </c>
       <c r="B610" s="63"/>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" s="61" t="s">
         <v>186</v>
       </c>
       <c r="B611" s="63"/>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" s="61" t="s">
         <v>186</v>
       </c>
       <c r="B612" s="63"/>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" s="61" t="s">
         <v>186</v>
       </c>
       <c r="B613" s="63"/>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" s="61" t="s">
         <v>186</v>
       </c>
       <c r="B614" s="63"/>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" s="61" t="s">
         <v>44</v>
       </c>
       <c r="B615" s="63"/>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" s="61" t="s">
         <v>44</v>
       </c>
       <c r="B616" s="63"/>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" s="61" t="s">
         <v>44</v>
       </c>
       <c r="B617" s="63"/>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" s="61" t="s">
         <v>44</v>
       </c>
       <c r="B618" s="63"/>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" s="61" t="s">
         <v>44</v>
       </c>
       <c r="B619" s="63"/>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" s="61" t="s">
         <v>187</v>
       </c>
       <c r="B620" s="63"/>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" s="61" t="s">
         <v>187</v>
       </c>
       <c r="B621" s="63"/>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B622" s="63"/>
       <c r="C622" s="64"/>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B623" s="63"/>
       <c r="C623" s="64"/>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B624" s="63"/>
       <c r="C624" s="64"/>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B625" s="63"/>
       <c r="C625" s="64"/>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B626" s="63"/>
       <c r="C626" s="64"/>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B627" s="63"/>
       <c r="C627" s="64"/>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B628" s="63"/>
       <c r="C628" s="64"/>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B629" s="63"/>
       <c r="C629" s="64"/>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B630" s="63"/>
       <c r="C630" s="64"/>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B631" s="63"/>
       <c r="C631" s="64"/>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B632" s="63"/>
       <c r="C632" s="64"/>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B633" s="63"/>
       <c r="C633" s="64"/>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B634" s="63"/>
       <c r="C634" s="64"/>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B635" s="63"/>
       <c r="C635" s="64"/>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B636" s="63"/>
       <c r="C636" s="64"/>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B637" s="63"/>
       <c r="C637" s="64"/>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B638" s="63"/>
       <c r="C638" s="64"/>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" s="64" t="s">
         <v>189</v>
       </c>
       <c r="B639" s="65"/>
       <c r="C639" s="64"/>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" s="64" t="s">
         <v>189</v>
       </c>
       <c r="B640" s="65"/>
       <c r="C640" s="64"/>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B641" s="63"/>
       <c r="C641" s="64"/>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B642" s="63"/>
       <c r="C642" s="64"/>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B643" s="63"/>
       <c r="C643" s="64"/>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B644" s="63"/>
       <c r="C644" s="64"/>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B645" s="63"/>
       <c r="C645" s="64"/>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B646" s="63"/>
       <c r="C646" s="64"/>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B647" s="63"/>
       <c r="C647" s="64"/>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B648" s="63"/>
       <c r="C648" s="64"/>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B649" s="63"/>
       <c r="C649" s="64"/>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B650" s="63"/>
       <c r="C650" s="64"/>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B651" s="63"/>
       <c r="C651" s="64"/>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B652" s="63"/>
       <c r="C652" s="64"/>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B653" s="63"/>
       <c r="C653" s="64"/>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B654" s="63"/>
       <c r="C654" s="64"/>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B655" s="63"/>
       <c r="C655" s="64"/>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B656" s="63"/>
       <c r="C656" s="64"/>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B657" s="63"/>
       <c r="C657" s="64"/>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B658" s="63"/>
       <c r="C658" s="64"/>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B659" s="63"/>
       <c r="C659" s="64"/>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" s="64" t="s">
         <v>191</v>
       </c>
       <c r="B660" s="63"/>
       <c r="C660" s="64"/>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" s="64" t="s">
         <v>191</v>
       </c>
       <c r="B661" s="63"/>
       <c r="C661" s="64"/>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" s="64" t="s">
         <v>191</v>
       </c>
       <c r="B662" s="63"/>
       <c r="C662" s="64"/>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" s="64" t="s">
         <v>192</v>
       </c>
       <c r="B663" s="63"/>
       <c r="C663" s="64"/>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" s="64" t="s">
         <v>192</v>
       </c>
       <c r="B664" s="63"/>
       <c r="C664" s="64"/>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" s="64" t="s">
         <v>192</v>
       </c>
       <c r="B665" s="63"/>
       <c r="C665" s="64"/>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666" s="64" t="s">
         <v>192</v>
       </c>
       <c r="B666" s="63"/>
       <c r="C666" s="64"/>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" s="64" t="s">
         <v>192</v>
       </c>
       <c r="B667" s="63"/>
       <c r="C667" s="64"/>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" s="64" t="s">
         <v>192</v>
       </c>
       <c r="B668" s="63"/>
       <c r="C668" s="64"/>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" s="64" t="s">
         <v>192</v>
       </c>
       <c r="B669" s="63"/>
       <c r="C669" s="64"/>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" s="64" t="s">
         <v>192</v>
       </c>
       <c r="B670" s="63"/>
       <c r="C670" s="64"/>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671" s="64" t="s">
         <v>192</v>
       </c>
       <c r="B671" s="63"/>
       <c r="C671" s="64"/>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" s="64" t="s">
         <v>192</v>
       </c>
       <c r="B672" s="63"/>
       <c r="C672" s="64"/>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" s="64" t="s">
         <v>193</v>
       </c>
       <c r="B673" s="63"/>
       <c r="C673" s="64"/>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" s="64" t="s">
         <v>193</v>
       </c>
       <c r="B674" s="63"/>
       <c r="C674" s="64"/>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" s="64" t="s">
         <v>193</v>
       </c>
       <c r="B675" s="63"/>
       <c r="C675" s="64"/>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" s="64" t="s">
         <v>193</v>
       </c>
       <c r="B676" s="63"/>
       <c r="C676" s="64"/>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" s="64" t="s">
         <v>193</v>
       </c>
       <c r="B677" s="63"/>
       <c r="C677" s="64"/>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" s="64" t="s">
         <v>193</v>
       </c>
       <c r="B678" s="63"/>
       <c r="C678" s="64"/>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" s="64" t="s">
         <v>193</v>
       </c>
       <c r="B679" s="63"/>
       <c r="C679" s="64"/>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" s="64" t="s">
         <v>193</v>
       </c>
       <c r="B680" s="63"/>
       <c r="C680" s="64"/>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" s="64" t="s">
         <v>193</v>
       </c>
       <c r="B681" s="63"/>
       <c r="C681" s="64"/>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" s="64" t="s">
         <v>193</v>
       </c>
       <c r="B682" s="63"/>
       <c r="C682" s="64"/>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683" s="64" t="s">
         <v>193</v>
       </c>
       <c r="B683" s="63"/>
       <c r="C683" s="64"/>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" s="64" t="s">
         <v>194</v>
       </c>
       <c r="B684" s="63"/>
       <c r="C684" s="64"/>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" s="64" t="s">
         <v>194</v>
       </c>
       <c r="B685" s="63"/>
       <c r="C685" s="64"/>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" s="64" t="s">
         <v>194</v>
       </c>
       <c r="B686" s="63"/>
       <c r="C686" s="64"/>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" s="64" t="s">
         <v>194</v>
       </c>
       <c r="B687" s="63"/>
       <c r="C687" s="64"/>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" s="64" t="s">
         <v>194</v>
       </c>
       <c r="B688" s="63"/>
       <c r="C688" s="64"/>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" s="64" t="s">
         <v>194</v>
       </c>
       <c r="B689" s="63"/>
       <c r="C689" s="64"/>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" s="64" t="s">
         <v>194</v>
       </c>
       <c r="B690" s="63"/>
       <c r="C690" s="64"/>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" s="64" t="s">
         <v>194</v>
       </c>
       <c r="B691" s="63"/>
       <c r="C691" s="64"/>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" s="64" t="s">
         <v>194</v>
       </c>
       <c r="B692" s="63"/>
       <c r="C692" s="64"/>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" s="64" t="s">
         <v>194</v>
       </c>
       <c r="B693" s="63"/>
       <c r="C693" s="64"/>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" s="64" t="s">
         <v>194</v>
       </c>
       <c r="B694" s="63"/>
       <c r="C694" s="64"/>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" s="64" t="s">
         <v>194</v>
       </c>
       <c r="B695" s="63"/>
       <c r="C695" s="64"/>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" s="64" t="s">
         <v>195</v>
       </c>
       <c r="B696" s="63"/>
       <c r="C696" s="64"/>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" s="64" t="s">
         <v>195</v>
       </c>
       <c r="B697" s="63"/>
       <c r="C697" s="64"/>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" s="64" t="s">
         <v>195</v>
       </c>
       <c r="B698" s="63"/>
       <c r="C698" s="64"/>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" s="64" t="s">
         <v>195</v>
       </c>
       <c r="B699" s="63"/>
       <c r="C699" s="64"/>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B700" s="63"/>
       <c r="C700" s="64"/>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B701" s="63"/>
       <c r="C701" s="64"/>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B702" s="63"/>
       <c r="C702" s="64"/>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B703" s="63"/>
       <c r="C703" s="64"/>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B704" s="63"/>
       <c r="C704" s="64"/>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B705" s="63"/>
       <c r="C705" s="64"/>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B706" s="63"/>
       <c r="C706" s="64"/>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B707" s="63"/>
       <c r="C707" s="64"/>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B708" s="63"/>
       <c r="C708" s="64"/>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B709" s="63"/>
       <c r="C709" s="64"/>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B710" s="63"/>
       <c r="C710" s="64"/>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B711" s="63"/>
       <c r="C711" s="64"/>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B712" s="63"/>
       <c r="C712" s="64"/>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B713" s="63"/>
       <c r="C713" s="64"/>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B714" s="63"/>
       <c r="C714" s="64"/>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B715" s="63"/>
       <c r="C715" s="64"/>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B716" s="63"/>
       <c r="C716" s="64"/>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B717" s="63"/>
       <c r="C717" s="64"/>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B718" s="63"/>
       <c r="C718" s="64"/>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B719" s="63"/>
       <c r="C719" s="64"/>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B720" s="63"/>
       <c r="C720" s="64"/>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B721" s="63"/>
       <c r="C721" s="64"/>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B722" s="63"/>
       <c r="C722" s="64"/>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B723" s="63"/>
       <c r="C723" s="64"/>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B724" s="63"/>
       <c r="C724" s="64"/>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B725" s="63"/>
       <c r="C725" s="64"/>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B726" s="63"/>
       <c r="C726" s="64"/>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" s="64" t="s">
         <v>197</v>
       </c>
       <c r="B727" s="63"/>
       <c r="C727" s="64"/>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" s="64" t="s">
         <v>197</v>
       </c>
       <c r="B728" s="63"/>
       <c r="C728" s="64"/>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" s="64" t="s">
         <v>197</v>
       </c>
       <c r="B729" s="63"/>
       <c r="C729" s="64"/>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" s="64" t="s">
         <v>197</v>
       </c>
       <c r="B730" s="63"/>
       <c r="C730" s="64"/>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" s="64" t="s">
         <v>197</v>
       </c>
       <c r="B731" s="63"/>
       <c r="C731" s="64"/>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" s="64" t="s">
         <v>198</v>
       </c>
       <c r="B732" s="63"/>
       <c r="C732" s="64"/>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733" s="64" t="s">
         <v>198</v>
       </c>
       <c r="B733" s="63"/>
       <c r="C733" s="64"/>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734" s="64" t="s">
         <v>198</v>
       </c>
       <c r="B734" s="63"/>
       <c r="C734" s="64"/>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" s="64" t="s">
         <v>198</v>
       </c>
       <c r="B735" s="63"/>
       <c r="C735" s="64"/>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" s="64" t="s">
         <v>198</v>
       </c>
       <c r="B736" s="63"/>
       <c r="C736" s="64"/>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" s="64" t="s">
         <v>198</v>
       </c>
       <c r="B737" s="63"/>
       <c r="C737" s="64"/>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" s="64" t="s">
         <v>198</v>
       </c>
       <c r="B738" s="63"/>
       <c r="C738" s="64"/>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" s="64" t="s">
         <v>198</v>
       </c>
       <c r="B739" s="63"/>
       <c r="C739" s="64"/>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" s="64" t="s">
         <v>198</v>
       </c>
       <c r="B740" s="63"/>
       <c r="C740" s="64"/>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A741" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B741" s="63"/>
       <c r="C741" s="64"/>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B742" s="63"/>
       <c r="C742" s="64"/>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B743" s="63"/>
       <c r="C743" s="64"/>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B744" s="63"/>
       <c r="C744" s="64"/>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B745" s="63"/>
       <c r="C745" s="64"/>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B746" s="63"/>
       <c r="C746" s="64"/>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B747" s="63"/>
       <c r="C747" s="64"/>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B748" s="63"/>
       <c r="C748" s="64"/>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B749" s="63"/>
       <c r="C749" s="64"/>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B750" s="63"/>
       <c r="C750" s="64"/>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B751" s="63"/>
       <c r="C751" s="64"/>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B752" s="63"/>
       <c r="C752" s="64"/>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B753" s="63"/>
       <c r="C753" s="64"/>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B754" s="63"/>
       <c r="C754" s="64"/>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B755" s="63"/>
       <c r="C755" s="64"/>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B756" s="63"/>
       <c r="C756" s="64"/>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B757" s="63"/>
       <c r="C757" s="64"/>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B758" s="63"/>
       <c r="C758" s="64"/>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B759" s="63"/>
       <c r="C759" s="64"/>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B760" s="63"/>
       <c r="C760" s="64"/>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B761" s="63"/>
       <c r="C761" s="64"/>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B762" s="63"/>
       <c r="C762" s="64"/>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B763" s="63"/>
       <c r="C763" s="64"/>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B764" s="63"/>
       <c r="C764" s="64"/>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B765" s="63"/>
       <c r="C765" s="64"/>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B766" s="63"/>
       <c r="C766" s="64"/>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B767" s="63"/>
       <c r="C767" s="64"/>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A768" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B768" s="63"/>
       <c r="C768" s="64"/>
     </row>
-    <row r="769" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A769" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B769" s="63"/>
       <c r="C769" s="64"/>
     </row>
-    <row r="770" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A770" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B770" s="63"/>
       <c r="C770" s="64"/>
     </row>
-    <row r="771" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A771" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B771" s="63"/>
       <c r="C771" s="64"/>
     </row>
-    <row r="772" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A772" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B772" s="63"/>
       <c r="C772" s="64"/>
     </row>
-    <row r="773" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A773" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B773" s="63"/>
       <c r="C773" s="64"/>
     </row>
-    <row r="774" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A774" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B774" s="63"/>
       <c r="C774" s="64"/>
     </row>
-    <row r="775" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A775" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B775" s="63"/>
       <c r="C775" s="64"/>
     </row>
-    <row r="776" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A776" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B776" s="63"/>
       <c r="C776" s="64"/>
     </row>
-    <row r="777" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A777" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B777" s="63"/>
       <c r="C777" s="64"/>
     </row>
-    <row r="778" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A778" s="64" t="s">
         <v>201</v>
       </c>
       <c r="B778" s="63"/>
       <c r="C778" s="64"/>
     </row>
-    <row r="779" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A779" s="64" t="s">
         <v>201</v>
       </c>
       <c r="B779" s="63"/>
       <c r="C779" s="64"/>
     </row>
-    <row r="780" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A780" s="64" t="s">
         <v>202</v>
       </c>
       <c r="B780" s="63"/>
       <c r="C780" s="64"/>
     </row>
-    <row r="781" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A781" s="64" t="s">
         <v>202</v>
       </c>
@@ -8341,7 +8657,7 @@
       <c r="L781" s="63"/>
       <c r="M781" s="64"/>
     </row>
-    <row r="782" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A782" s="64" t="s">
         <v>203</v>
       </c>
@@ -8351,7 +8667,7 @@
       <c r="L782" s="63"/>
       <c r="M782" s="64"/>
     </row>
-    <row r="783" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A783" s="64" t="s">
         <v>203</v>
       </c>
@@ -8361,7 +8677,7 @@
       <c r="L783" s="63"/>
       <c r="M783" s="64"/>
     </row>
-    <row r="784" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A784" s="64" t="s">
         <v>203</v>
       </c>
@@ -8371,7 +8687,7 @@
       <c r="L784" s="63"/>
       <c r="M784" s="64"/>
     </row>
-    <row r="785" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A785" s="64" t="s">
         <v>203</v>
       </c>
@@ -8381,7 +8697,7 @@
       <c r="L785" s="63"/>
       <c r="M785" s="64"/>
     </row>
-    <row r="786" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A786" s="64" t="s">
         <v>203</v>
       </c>
@@ -8391,7 +8707,7 @@
       <c r="L786" s="63"/>
       <c r="M786" s="64"/>
     </row>
-    <row r="787" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A787" s="64" t="s">
         <v>203</v>
       </c>
@@ -8401,7 +8717,7 @@
       <c r="L787" s="63"/>
       <c r="M787" s="64"/>
     </row>
-    <row r="788" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A788" s="64" t="s">
         <v>203</v>
       </c>
@@ -8411,7 +8727,7 @@
       <c r="L788" s="63"/>
       <c r="M788" s="64"/>
     </row>
-    <row r="789" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A789" s="64" t="s">
         <v>203</v>
       </c>
@@ -8421,221 +8737,221 @@
       <c r="L789" s="63"/>
       <c r="M789" s="64"/>
     </row>
-    <row r="790" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A790" s="64" t="s">
         <v>203</v>
       </c>
       <c r="B790" s="63"/>
       <c r="C790" s="64"/>
     </row>
-    <row r="791" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A791" s="64" t="s">
         <v>203</v>
       </c>
       <c r="B791" s="63"/>
       <c r="C791" s="64"/>
     </row>
-    <row r="792" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A792" s="61" t="s">
         <v>204</v>
       </c>
       <c r="B792" s="63"/>
       <c r="C792" s="64"/>
     </row>
-    <row r="793" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A793" s="61" t="s">
         <v>204</v>
       </c>
       <c r="B793" s="63"/>
       <c r="C793" s="64"/>
     </row>
-    <row r="794" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A794" s="61" t="s">
         <v>204</v>
       </c>
       <c r="B794" s="63"/>
       <c r="C794" s="64"/>
     </row>
-    <row r="795" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A795" s="61" t="s">
         <v>204</v>
       </c>
       <c r="B795" s="63"/>
       <c r="C795" s="64"/>
     </row>
-    <row r="796" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A796" s="61" t="s">
         <v>204</v>
       </c>
       <c r="B796" s="63"/>
       <c r="C796" s="64"/>
     </row>
-    <row r="797" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A797" s="61" t="s">
         <v>204</v>
       </c>
       <c r="B797" s="63"/>
       <c r="C797" s="64"/>
     </row>
-    <row r="798" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A798" s="61" t="s">
         <v>204</v>
       </c>
       <c r="B798" s="63"/>
       <c r="C798" s="64"/>
     </row>
-    <row r="799" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A799" s="64" t="s">
         <v>205</v>
       </c>
       <c r="B799" s="63"/>
       <c r="C799" s="64"/>
     </row>
-    <row r="800" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A800" s="64" t="s">
         <v>205</v>
       </c>
       <c r="B800" s="63"/>
       <c r="C800" s="64"/>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A801" s="64" t="s">
         <v>205</v>
       </c>
       <c r="B801" s="63"/>
       <c r="C801" s="64"/>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A802" s="64" t="s">
         <v>205</v>
       </c>
       <c r="B802" s="63"/>
       <c r="C802" s="64"/>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A803" s="64" t="s">
         <v>205</v>
       </c>
       <c r="B803" s="63"/>
       <c r="C803" s="64"/>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A804" s="61" t="s">
         <v>206</v>
       </c>
       <c r="B804" s="63"/>
       <c r="C804" s="66"/>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A805" s="61" t="s">
         <v>206</v>
       </c>
       <c r="B805" s="63"/>
       <c r="C805" s="64"/>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A806" s="61" t="s">
         <v>206</v>
       </c>
       <c r="B806" s="63"/>
       <c r="C806" s="64"/>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A807" s="61" t="s">
         <v>206</v>
       </c>
       <c r="B807" s="63"/>
       <c r="C807" s="64"/>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A808" s="61" t="s">
         <v>206</v>
       </c>
       <c r="B808" s="63"/>
       <c r="C808" s="64"/>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A809" s="61" t="s">
         <v>206</v>
       </c>
       <c r="B809" s="63"/>
       <c r="C809" s="64"/>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A810" s="61" t="s">
         <v>206</v>
       </c>
       <c r="B810" s="63"/>
       <c r="C810" s="64"/>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A811" s="64" t="s">
         <v>206</v>
       </c>
       <c r="B811" s="63"/>
       <c r="C811" s="64"/>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A812" s="61" t="s">
         <v>207</v>
       </c>
       <c r="B812" s="63"/>
       <c r="C812" s="66"/>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A813" s="61" t="s">
         <v>207</v>
       </c>
       <c r="B813" s="63"/>
       <c r="C813" s="64"/>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A814" s="61" t="s">
         <v>207</v>
       </c>
       <c r="B814" s="63"/>
       <c r="C814" s="64"/>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A815" s="61" t="s">
         <v>207</v>
       </c>
       <c r="B815" s="63"/>
       <c r="C815" s="64"/>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A816" s="64" t="s">
         <v>208</v>
       </c>
       <c r="B816" s="63"/>
       <c r="C816" s="64"/>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A817" s="64" t="s">
         <v>208</v>
       </c>
       <c r="B817" s="63"/>
       <c r="C817" s="64"/>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A818" s="61" t="s">
         <v>209</v>
       </c>
       <c r="B818" s="63"/>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A819" s="61" t="s">
         <v>209</v>
       </c>
       <c r="B819" s="63"/>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A820" s="61" t="s">
         <v>209</v>
       </c>
       <c r="B820" s="63"/>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A821" s="61" t="s">
         <v>209</v>
       </c>
@@ -8651,21 +8967,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="45.3984375" style="6" customWidth="1"/>
     <col min="2" max="2" width="36.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" style="6" customWidth="1"/>
     <col min="4" max="4" width="60" style="60" customWidth="1"/>
-    <col min="5" max="5" width="48.125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="48.09765625" style="6" customWidth="1"/>
     <col min="6" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>18</v>
       </c>
@@ -8682,7 +8998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>166</v>
       </c>
@@ -8690,22 +9006,22 @@
         <v>167</v>
       </c>
       <c r="C2" s="6">
-        <v>2021051001</v>
+        <v>2021052003</v>
       </c>
       <c r="D2" s="88" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="29"/>
       <c r="D3" s="59"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://cavateco.terrafirma.co.mz:8080/gras_nampula/submission" xr:uid="{1FC28DAF-EAA1-477A-9BE3-6E8EA7BF0BEC}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{1FC28DAF-EAA1-477A-9BE3-6E8EA7BF0BEC}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>

--- a/xlsx/form_o_parties.xlsx
+++ b/xlsx/form_o_parties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\odk_forms_cesc_niassa\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C49270-9117-4B6C-8CFD-093F3443DBF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA8F69E-C49F-4267-BEAE-AF51712AD373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="14040" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="302">
   <si>
     <t>type</t>
   </si>
@@ -950,16 +950,26 @@
     <t>Confirmo que a pessoa deu consentimento para o registo de detalhes pessoais e biométricos</t>
   </si>
   <si>
-    <t>http://cavateco.terrafirma.co.mz:8080/sandbox/submission</t>
+    <t>http://cavateco.terrafirma.co.mz:8080/cesc_niassa/submission</t>
+  </si>
+  <si>
+    <t>consent_ciyao.mp3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1316,246 +1326,260 @@
   </borders>
   <cellStyleXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
@@ -1570,233 +1594,220 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="240"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="240" applyFill="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="240" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="240"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="240" applyFill="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="240" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="269" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="269" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="270">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2407,37 +2418,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S107"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomRight" activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.59765625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="31.625" style="24" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="28" customWidth="1"/>
     <col min="3" max="3" width="106" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.09765625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="27.125" style="24" customWidth="1"/>
     <col min="5" max="5" width="28" style="24" customWidth="1"/>
-    <col min="6" max="6" width="11.19921875" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.8984375" style="24" customWidth="1"/>
-    <col min="8" max="8" width="36.69921875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="36.75" style="24" customWidth="1"/>
     <col min="9" max="9" width="36" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.09765625" style="23" customWidth="1"/>
-    <col min="11" max="11" width="7.59765625" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.125" style="23" customWidth="1"/>
+    <col min="11" max="11" width="7.625" style="24" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.8984375" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.09765625" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.19921875" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.25" style="24" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.09765625" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.19921875" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.25" style="24" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="11" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2496,7 +2507,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>15</v>
       </c>
@@ -2504,7 +2515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>93</v>
       </c>
@@ -2515,7 +2526,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>79</v>
       </c>
@@ -2526,7 +2537,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="89" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="89" t="s">
         <v>79</v>
       </c>
@@ -2537,7 +2548,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>79</v>
       </c>
@@ -2548,7 +2559,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
         <v>79</v>
       </c>
@@ -2559,7 +2570,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="98" t="s">
         <v>79</v>
       </c>
@@ -2570,7 +2581,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -2583,7 +2594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>35</v>
       </c>
@@ -2594,7 +2605,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="57" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="57" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
         <v>35</v>
       </c>
@@ -2606,13 +2617,13 @@
       </c>
       <c r="D12" s="91"/>
     </row>
-    <row r="13" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="56"/>
     </row>
-    <row r="14" spans="1:19" s="31" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="31" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>35</v>
       </c>
@@ -2624,7 +2635,7 @@
       </c>
       <c r="D14" s="93"/>
     </row>
-    <row r="15" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>37</v>
       </c>
@@ -2642,7 +2653,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -2660,7 +2671,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>26</v>
       </c>
@@ -2677,7 +2688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>26</v>
       </c>
@@ -2694,13 +2705,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="32"/>
     </row>
-    <row r="20" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>16</v>
       </c>
@@ -2718,7 +2729,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>73</v>
       </c>
@@ -2736,7 +2747,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>74</v>
       </c>
@@ -2757,7 +2768,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
         <v>103</v>
       </c>
@@ -2778,7 +2789,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="31" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" s="31" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="72" t="s">
         <v>217</v>
       </c>
@@ -2806,7 +2817,7 @@
       </c>
       <c r="N24" s="72"/>
     </row>
-    <row r="25" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
         <v>79</v>
       </c>
@@ -2817,7 +2828,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="68" t="s">
         <v>211</v>
       </c>
@@ -2839,7 +2850,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>35</v>
       </c>
@@ -2855,7 +2866,7 @@
       </c>
       <c r="J27" s="24"/>
     </row>
-    <row r="28" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="70" t="s">
         <v>35</v>
       </c>
@@ -2869,7 +2880,7 @@
       <c r="H28" s="31"/>
       <c r="J28" s="24"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="71" t="s">
         <v>219</v>
       </c>
@@ -2890,7 +2901,7 @@
       </c>
       <c r="M29" s="72"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="76" t="s">
         <v>26</v>
       </c>
@@ -2914,7 +2925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="76" t="s">
         <v>26</v>
       </c>
@@ -2938,7 +2949,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="76" t="s">
         <v>26</v>
       </c>
@@ -2962,7 +2973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="76" t="s">
         <v>26</v>
       </c>
@@ -2986,7 +2997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="76" t="s">
         <v>26</v>
       </c>
@@ -3010,7 +3021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="76" t="s">
         <v>26</v>
       </c>
@@ -3034,7 +3045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="76" t="s">
         <v>26</v>
       </c>
@@ -3058,7 +3069,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="76" t="s">
         <v>26</v>
       </c>
@@ -3082,7 +3093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="76" t="s">
         <v>26</v>
       </c>
@@ -3106,7 +3117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="76" t="s">
         <v>26</v>
       </c>
@@ -3130,7 +3141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="76" t="s">
         <v>26</v>
       </c>
@@ -3147,14 +3158,14 @@
       </c>
       <c r="J40" s="24"/>
       <c r="M40" s="72"/>
-      <c r="Q40" s="78" t="s">
-        <v>258</v>
+      <c r="Q40" s="106" t="s">
+        <v>301</v>
       </c>
       <c r="S40" s="78" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="76" t="s">
         <v>26</v>
       </c>
@@ -3178,7 +3189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="102" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" s="102" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="103" t="s">
         <v>296</v>
       </c>
@@ -3196,7 +3207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
         <v>27</v>
       </c>
@@ -3216,7 +3227,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
@@ -3232,7 +3243,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
         <v>26</v>
       </c>
@@ -3246,7 +3257,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
         <v>26</v>
       </c>
@@ -3260,7 +3271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
         <v>26</v>
       </c>
@@ -3272,7 +3283,7 @@
       </c>
       <c r="D47" s="81"/>
     </row>
-    <row r="48" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
         <v>26</v>
       </c>
@@ -3287,7 +3298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
         <v>26</v>
       </c>
@@ -3302,13 +3313,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B50" s="32"/>
     </row>
-    <row r="51" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -3324,7 +3335,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="67" t="s">
         <v>213</v>
       </c>
@@ -3344,7 +3355,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="68" t="s">
         <v>212</v>
       </c>
@@ -3365,7 +3376,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="s">
         <v>26</v>
       </c>
@@ -3382,13 +3393,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B55" s="32"/>
     </row>
-    <row r="56" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="67" t="s">
         <v>214</v>
       </c>
@@ -3408,7 +3419,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
         <v>16</v>
       </c>
@@ -3432,7 +3443,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="67" t="s">
         <v>215</v>
       </c>
@@ -3455,7 +3466,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
         <v>79</v>
       </c>
@@ -3467,7 +3478,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:15" s="31" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" s="31" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="s">
         <v>35</v>
       </c>
@@ -3483,7 +3494,7 @@
       </c>
       <c r="K60" s="37"/>
     </row>
-    <row r="61" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>21</v>
       </c>
@@ -3499,7 +3510,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="67" t="s">
         <v>216</v>
       </c>
@@ -3520,7 +3531,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="31" t="s">
         <v>26</v>
       </c>
@@ -3538,7 +3549,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="31" t="s">
         <v>26</v>
       </c>
@@ -3556,7 +3567,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="s">
         <v>16</v>
       </c>
@@ -3574,7 +3585,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="31" t="s">
         <v>16</v>
       </c>
@@ -3592,7 +3603,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="67" t="s">
         <v>214</v>
       </c>
@@ -3606,13 +3617,13 @@
         <v>210</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B68" s="32"/>
     </row>
-    <row r="69" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="67" t="s">
         <v>214</v>
       </c>
@@ -3627,7 +3638,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="39" t="s">
         <v>26</v>
       </c>
@@ -3648,7 +3659,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:16" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="39" t="s">
         <v>35</v>
       </c>
@@ -3664,7 +3675,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="31" t="s">
         <v>27</v>
       </c>
@@ -3682,7 +3693,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="94" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" s="94" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>21</v>
       </c>
@@ -3702,7 +3713,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="94" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" s="94" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="31" t="s">
         <v>26</v>
       </c>
@@ -3715,7 +3726,7 @@
       <c r="D74" s="23"/>
       <c r="K74" s="31"/>
     </row>
-    <row r="75" spans="1:16" s="94" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" s="94" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="31" t="s">
         <v>26</v>
       </c>
@@ -3728,7 +3739,7 @@
       <c r="D75" s="23"/>
       <c r="K75" s="31"/>
     </row>
-    <row r="76" spans="1:16" s="94" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" s="94" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="31" t="s">
         <v>26</v>
       </c>
@@ -3743,7 +3754,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:16" s="94" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" s="94" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="31" t="s">
         <v>26</v>
       </c>
@@ -3756,7 +3767,7 @@
       <c r="D77" s="23"/>
       <c r="K77" s="31"/>
     </row>
-    <row r="78" spans="1:16" s="94" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" s="94" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="31" t="s">
         <v>26</v>
       </c>
@@ -3768,13 +3779,13 @@
       </c>
       <c r="D78" s="23"/>
     </row>
-    <row r="79" spans="1:16" s="94" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" s="94" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B79" s="38"/>
     </row>
-    <row r="80" spans="1:16" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="39" t="s">
         <v>35</v>
       </c>
@@ -3790,7 +3801,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="31" t="s">
         <v>27</v>
       </c>
@@ -3808,7 +3819,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="82" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="31" t="s">
         <v>27</v>
       </c>
@@ -3826,7 +3837,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="31" t="s">
         <v>26</v>
       </c>
@@ -3847,7 +3858,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="39" t="s">
         <v>26</v>
       </c>
@@ -3865,7 +3876,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="24" t="s">
         <v>24</v>
       </c>
@@ -3873,70 +3884,70 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="32"/>
     </row>
-    <row r="87" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="32"/>
     </row>
-    <row r="88" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="32"/>
     </row>
-    <row r="89" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="32"/>
     </row>
-    <row r="90" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="32"/>
     </row>
-    <row r="91" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="32"/>
     </row>
-    <row r="92" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="32"/>
     </row>
-    <row r="93" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="32"/>
     </row>
-    <row r="94" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="32"/>
     </row>
-    <row r="95" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="32"/>
     </row>
-    <row r="96" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="32"/>
     </row>
-    <row r="97" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="32"/>
     </row>
-    <row r="98" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="32"/>
     </row>
-    <row r="99" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="32"/>
     </row>
-    <row r="100" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="32"/>
     </row>
-    <row r="101" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="32"/>
     </row>
-    <row r="102" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="32"/>
     </row>
-    <row r="103" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="32"/>
     </row>
-    <row r="104" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="32"/>
     </row>
-    <row r="105" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="32"/>
     </row>
-    <row r="106" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="32"/>
     </row>
-    <row r="107" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:2" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B107" s="32"/>
     </row>
   </sheetData>
@@ -3956,18 +3967,18 @@
       <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="7" customWidth="1"/>
     <col min="2" max="2" width="30" style="11" customWidth="1"/>
-    <col min="3" max="3" width="46.3984375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="28.8984375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="17.3984375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.8984375" style="5"/>
-    <col min="7" max="16384" width="10.8984375" style="7"/>
+    <col min="3" max="3" width="46.375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="28.875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="5"/>
+    <col min="7" max="16384" width="10.875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3988,7 +3999,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="10"/>
       <c r="C2" s="1"/>
@@ -3997,7 +4008,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>52</v>
       </c>
@@ -4008,7 +4019,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>52</v>
       </c>
@@ -4019,7 +4030,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>52</v>
       </c>
@@ -4030,7 +4041,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>52</v>
       </c>
@@ -4041,7 +4052,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>52</v>
       </c>
@@ -4052,7 +4063,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>52</v>
       </c>
@@ -4063,7 +4074,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>52</v>
       </c>
@@ -4074,7 +4085,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>52</v>
       </c>
@@ -4085,7 +4096,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>52</v>
       </c>
@@ -4096,7 +4107,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>52</v>
       </c>
@@ -4107,10 +4118,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
         <v>78</v>
       </c>
@@ -4121,17 +4132,17 @@
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="54"/>
       <c r="B16" s="56"/>
       <c r="C16" s="54"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="54"/>
       <c r="B17" s="55"/>
       <c r="C17" s="54"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
         <v>17</v>
       </c>
@@ -4142,7 +4153,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
         <v>17</v>
       </c>
@@ -4168,17 +4179,17 @@
       <selection activeCell="B831" sqref="B831"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" style="61" customWidth="1"/>
-    <col min="2" max="2" width="26.09765625" style="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.59765625" style="61" customWidth="1"/>
+    <col min="2" max="2" width="26.125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="61" customWidth="1"/>
     <col min="4" max="5" width="9" style="61"/>
-    <col min="6" max="6" width="34.8984375" style="61" customWidth="1"/>
+    <col min="6" max="6" width="34.875" style="61" customWidth="1"/>
     <col min="7" max="16384" width="9" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>178</v>
       </c>
@@ -4201,1642 +4212,1642 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="61" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="61" t="s">
         <v>180</v>
       </c>
@@ -5845,7 +5856,7 @@
       <c r="D329" s="62"/>
       <c r="E329" s="62"/>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="61" t="s">
         <v>180</v>
       </c>
@@ -5854,7 +5865,7 @@
       <c r="D330" s="62"/>
       <c r="E330" s="62"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="61" t="s">
         <v>180</v>
       </c>
@@ -5863,7 +5874,7 @@
       <c r="D331" s="62"/>
       <c r="E331" s="62"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="61" t="s">
         <v>180</v>
       </c>
@@ -5872,7 +5883,7 @@
       <c r="D332" s="62"/>
       <c r="E332" s="62"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="61" t="s">
         <v>180</v>
       </c>
@@ -5881,7 +5892,7 @@
       <c r="D333" s="62"/>
       <c r="E333" s="62"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="61" t="s">
         <v>180</v>
       </c>
@@ -5890,7 +5901,7 @@
       <c r="D334" s="62"/>
       <c r="E334" s="62"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="61" t="s">
         <v>180</v>
       </c>
@@ -5899,7 +5910,7 @@
       <c r="D335" s="62"/>
       <c r="E335" s="62"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="61" t="s">
         <v>180</v>
       </c>
@@ -5908,7 +5919,7 @@
       <c r="D336" s="62"/>
       <c r="E336" s="62"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="61" t="s">
         <v>180</v>
       </c>
@@ -5917,7 +5928,7 @@
       <c r="D337" s="62"/>
       <c r="E337" s="62"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="61" t="s">
         <v>180</v>
       </c>
@@ -5926,7 +5937,7 @@
       <c r="D338" s="62"/>
       <c r="E338" s="62"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="61" t="s">
         <v>180</v>
       </c>
@@ -5935,7 +5946,7 @@
       <c r="D339" s="62"/>
       <c r="E339" s="62"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="61" t="s">
         <v>180</v>
       </c>
@@ -5944,7 +5955,7 @@
       <c r="D340" s="62"/>
       <c r="E340" s="62"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="61" t="s">
         <v>180</v>
       </c>
@@ -5953,7 +5964,7 @@
       <c r="D341" s="62"/>
       <c r="E341" s="62"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="61" t="s">
         <v>180</v>
       </c>
@@ -5962,7 +5973,7 @@
       <c r="D342" s="62"/>
       <c r="E342" s="62"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="61" t="s">
         <v>180</v>
       </c>
@@ -5971,7 +5982,7 @@
       <c r="D343" s="62"/>
       <c r="E343" s="62"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="61" t="s">
         <v>180</v>
       </c>
@@ -5980,7 +5991,7 @@
       <c r="D344" s="62"/>
       <c r="E344" s="62"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="61" t="s">
         <v>180</v>
       </c>
@@ -5989,7 +6000,7 @@
       <c r="D345" s="62"/>
       <c r="E345" s="62"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="61" t="s">
         <v>180</v>
       </c>
@@ -5998,7 +6009,7 @@
       <c r="D346" s="62"/>
       <c r="E346" s="62"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="61" t="s">
         <v>180</v>
       </c>
@@ -6007,7 +6018,7 @@
       <c r="D347" s="62"/>
       <c r="E347" s="62"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="61" t="s">
         <v>180</v>
       </c>
@@ -6016,7 +6027,7 @@
       <c r="D348" s="62"/>
       <c r="E348" s="62"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="61" t="s">
         <v>180</v>
       </c>
@@ -6025,7 +6036,7 @@
       <c r="D349" s="62"/>
       <c r="E349" s="62"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="61" t="s">
         <v>180</v>
       </c>
@@ -6034,7 +6045,7 @@
       <c r="D350" s="62"/>
       <c r="E350" s="62"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="61" t="s">
         <v>180</v>
       </c>
@@ -6043,7 +6054,7 @@
       <c r="D351" s="62"/>
       <c r="E351" s="62"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="61" t="s">
         <v>180</v>
       </c>
@@ -6052,7 +6063,7 @@
       <c r="D352" s="62"/>
       <c r="E352" s="62"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="61" t="s">
         <v>180</v>
       </c>
@@ -6061,7 +6072,7 @@
       <c r="D353" s="62"/>
       <c r="E353" s="62"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="61" t="s">
         <v>180</v>
       </c>
@@ -6070,7 +6081,7 @@
       <c r="D354" s="62"/>
       <c r="E354" s="62"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="61" t="s">
         <v>180</v>
       </c>
@@ -6079,7 +6090,7 @@
       <c r="D355" s="62"/>
       <c r="E355" s="62"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="61" t="s">
         <v>180</v>
       </c>
@@ -6088,7 +6099,7 @@
       <c r="D356" s="62"/>
       <c r="E356" s="62"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="61" t="s">
         <v>180</v>
       </c>
@@ -6097,7 +6108,7 @@
       <c r="D357" s="62"/>
       <c r="E357" s="62"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="61" t="s">
         <v>180</v>
       </c>
@@ -6106,7 +6117,7 @@
       <c r="D358" s="62"/>
       <c r="E358" s="62"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="61" t="s">
         <v>180</v>
       </c>
@@ -6115,7 +6126,7 @@
       <c r="D359" s="62"/>
       <c r="E359" s="62"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="61" t="s">
         <v>180</v>
       </c>
@@ -6124,7 +6135,7 @@
       <c r="D360" s="62"/>
       <c r="E360" s="62"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="61" t="s">
         <v>180</v>
       </c>
@@ -6133,7 +6144,7 @@
       <c r="D361" s="62"/>
       <c r="E361" s="62"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="61" t="s">
         <v>180</v>
       </c>
@@ -6142,7 +6153,7 @@
       <c r="D362" s="62"/>
       <c r="E362" s="62"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="61" t="s">
         <v>180</v>
       </c>
@@ -6151,7 +6162,7 @@
       <c r="D363" s="62"/>
       <c r="E363" s="62"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="61" t="s">
         <v>180</v>
       </c>
@@ -6160,7 +6171,7 @@
       <c r="D364" s="62"/>
       <c r="E364" s="62"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="61" t="s">
         <v>180</v>
       </c>
@@ -6169,7 +6180,7 @@
       <c r="D365" s="62"/>
       <c r="E365" s="62"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="61" t="s">
         <v>180</v>
       </c>
@@ -6178,7 +6189,7 @@
       <c r="D366" s="62"/>
       <c r="E366" s="62"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="61" t="s">
         <v>180</v>
       </c>
@@ -6187,7 +6198,7 @@
       <c r="D367" s="62"/>
       <c r="E367" s="62"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="61" t="s">
         <v>180</v>
       </c>
@@ -6196,7 +6207,7 @@
       <c r="D368" s="62"/>
       <c r="E368" s="62"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="61" t="s">
         <v>180</v>
       </c>
@@ -6205,7 +6216,7 @@
       <c r="D369" s="62"/>
       <c r="E369" s="62"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="61" t="s">
         <v>180</v>
       </c>
@@ -6214,7 +6225,7 @@
       <c r="D370" s="62"/>
       <c r="E370" s="62"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="61" t="s">
         <v>180</v>
       </c>
@@ -6223,7 +6234,7 @@
       <c r="D371" s="62"/>
       <c r="E371" s="62"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="61" t="s">
         <v>180</v>
       </c>
@@ -6232,7 +6243,7 @@
       <c r="D372" s="62"/>
       <c r="E372" s="62"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="61" t="s">
         <v>180</v>
       </c>
@@ -6241,7 +6252,7 @@
       <c r="D373" s="62"/>
       <c r="E373" s="62"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="61" t="s">
         <v>180</v>
       </c>
@@ -6250,7 +6261,7 @@
       <c r="D374" s="62"/>
       <c r="E374" s="62"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="61" t="s">
         <v>180</v>
       </c>
@@ -6259,7 +6270,7 @@
       <c r="D375" s="62"/>
       <c r="E375" s="62"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="61" t="s">
         <v>180</v>
       </c>
@@ -6268,7 +6279,7 @@
       <c r="D376" s="62"/>
       <c r="E376" s="62"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="61" t="s">
         <v>180</v>
       </c>
@@ -6277,7 +6288,7 @@
       <c r="D377" s="62"/>
       <c r="E377" s="62"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="61" t="s">
         <v>180</v>
       </c>
@@ -6286,2368 +6297,2368 @@
       <c r="D378" s="62"/>
       <c r="E378" s="62"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="61" t="s">
         <v>181</v>
       </c>
       <c r="B589" s="63"/>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="61" t="s">
         <v>181</v>
       </c>
       <c r="B590" s="63"/>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="61" t="s">
         <v>181</v>
       </c>
       <c r="B591" s="63"/>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="61" t="s">
         <v>181</v>
       </c>
       <c r="B592" s="63"/>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="61" t="s">
         <v>182</v>
       </c>
       <c r="B593" s="63"/>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="61" t="s">
         <v>182</v>
       </c>
       <c r="B594" s="63"/>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="61" t="s">
         <v>182</v>
       </c>
       <c r="B595" s="63"/>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="61" t="s">
         <v>183</v>
       </c>
       <c r="B596" s="63"/>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="61" t="s">
         <v>183</v>
       </c>
       <c r="B597" s="63"/>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="61" t="s">
         <v>184</v>
       </c>
       <c r="B598" s="63"/>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="61" t="s">
         <v>184</v>
       </c>
       <c r="B599" s="63"/>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="61" t="s">
         <v>184</v>
       </c>
       <c r="B600" s="63"/>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="61" t="s">
         <v>184</v>
       </c>
       <c r="B601" s="63"/>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="61" t="s">
         <v>184</v>
       </c>
       <c r="B602" s="63"/>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="61" t="s">
         <v>184</v>
       </c>
       <c r="B603" s="63"/>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="61" t="s">
         <v>184</v>
       </c>
       <c r="B604" s="63"/>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="61" t="s">
         <v>184</v>
       </c>
       <c r="B605" s="63"/>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="61" t="s">
         <v>184</v>
       </c>
       <c r="B606" s="63"/>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="61" t="s">
         <v>184</v>
       </c>
       <c r="B607" s="63"/>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="61" t="s">
         <v>184</v>
       </c>
       <c r="B608" s="63"/>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" s="61" t="s">
         <v>185</v>
       </c>
       <c r="B609" s="63"/>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" s="61" t="s">
         <v>185</v>
       </c>
       <c r="B610" s="63"/>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" s="61" t="s">
         <v>186</v>
       </c>
       <c r="B611" s="63"/>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" s="61" t="s">
         <v>186</v>
       </c>
       <c r="B612" s="63"/>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" s="61" t="s">
         <v>186</v>
       </c>
       <c r="B613" s="63"/>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" s="61" t="s">
         <v>186</v>
       </c>
       <c r="B614" s="63"/>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" s="61" t="s">
         <v>44</v>
       </c>
       <c r="B615" s="63"/>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" s="61" t="s">
         <v>44</v>
       </c>
       <c r="B616" s="63"/>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" s="61" t="s">
         <v>44</v>
       </c>
       <c r="B617" s="63"/>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" s="61" t="s">
         <v>44</v>
       </c>
       <c r="B618" s="63"/>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" s="61" t="s">
         <v>44</v>
       </c>
       <c r="B619" s="63"/>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" s="61" t="s">
         <v>187</v>
       </c>
       <c r="B620" s="63"/>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" s="61" t="s">
         <v>187</v>
       </c>
       <c r="B621" s="63"/>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B622" s="63"/>
       <c r="C622" s="64"/>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B623" s="63"/>
       <c r="C623" s="64"/>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B624" s="63"/>
       <c r="C624" s="64"/>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B625" s="63"/>
       <c r="C625" s="64"/>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B626" s="63"/>
       <c r="C626" s="64"/>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B627" s="63"/>
       <c r="C627" s="64"/>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B628" s="63"/>
       <c r="C628" s="64"/>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B629" s="63"/>
       <c r="C629" s="64"/>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B630" s="63"/>
       <c r="C630" s="64"/>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B631" s="63"/>
       <c r="C631" s="64"/>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B632" s="63"/>
       <c r="C632" s="64"/>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B633" s="63"/>
       <c r="C633" s="64"/>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B634" s="63"/>
       <c r="C634" s="64"/>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B635" s="63"/>
       <c r="C635" s="64"/>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B636" s="63"/>
       <c r="C636" s="64"/>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B637" s="63"/>
       <c r="C637" s="64"/>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" s="64" t="s">
         <v>188</v>
       </c>
       <c r="B638" s="63"/>
       <c r="C638" s="64"/>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" s="64" t="s">
         <v>189</v>
       </c>
       <c r="B639" s="65"/>
       <c r="C639" s="64"/>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" s="64" t="s">
         <v>189</v>
       </c>
       <c r="B640" s="65"/>
       <c r="C640" s="64"/>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B641" s="63"/>
       <c r="C641" s="64"/>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B642" s="63"/>
       <c r="C642" s="64"/>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B643" s="63"/>
       <c r="C643" s="64"/>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B644" s="63"/>
       <c r="C644" s="64"/>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B645" s="63"/>
       <c r="C645" s="64"/>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B646" s="63"/>
       <c r="C646" s="64"/>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B647" s="63"/>
       <c r="C647" s="64"/>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B648" s="63"/>
       <c r="C648" s="64"/>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B649" s="63"/>
       <c r="C649" s="64"/>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B650" s="63"/>
       <c r="C650" s="64"/>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B651" s="63"/>
       <c r="C651" s="64"/>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B652" s="63"/>
       <c r="C652" s="64"/>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B653" s="63"/>
       <c r="C653" s="64"/>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B654" s="63"/>
       <c r="C654" s="64"/>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B655" s="63"/>
       <c r="C655" s="64"/>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B656" s="63"/>
       <c r="C656" s="64"/>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B657" s="63"/>
       <c r="C657" s="64"/>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B658" s="63"/>
       <c r="C658" s="64"/>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B659" s="63"/>
       <c r="C659" s="64"/>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" s="64" t="s">
         <v>191</v>
       </c>
       <c r="B660" s="63"/>
       <c r="C660" s="64"/>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" s="64" t="s">
         <v>191</v>
       </c>
       <c r="B661" s="63"/>
       <c r="C661" s="64"/>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" s="64" t="s">
         <v>191</v>
       </c>
       <c r="B662" s="63"/>
       <c r="C662" s="64"/>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" s="64" t="s">
         <v>192</v>
       </c>
       <c r="B663" s="63"/>
       <c r="C663" s="64"/>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" s="64" t="s">
         <v>192</v>
       </c>
       <c r="B664" s="63"/>
       <c r="C664" s="64"/>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" s="64" t="s">
         <v>192</v>
       </c>
       <c r="B665" s="63"/>
       <c r="C665" s="64"/>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" s="64" t="s">
         <v>192</v>
       </c>
       <c r="B666" s="63"/>
       <c r="C666" s="64"/>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" s="64" t="s">
         <v>192</v>
       </c>
       <c r="B667" s="63"/>
       <c r="C667" s="64"/>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" s="64" t="s">
         <v>192</v>
       </c>
       <c r="B668" s="63"/>
       <c r="C668" s="64"/>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" s="64" t="s">
         <v>192</v>
       </c>
       <c r="B669" s="63"/>
       <c r="C669" s="64"/>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" s="64" t="s">
         <v>192</v>
       </c>
       <c r="B670" s="63"/>
       <c r="C670" s="64"/>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" s="64" t="s">
         <v>192</v>
       </c>
       <c r="B671" s="63"/>
       <c r="C671" s="64"/>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" s="64" t="s">
         <v>192</v>
       </c>
       <c r="B672" s="63"/>
       <c r="C672" s="64"/>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" s="64" t="s">
         <v>193</v>
       </c>
       <c r="B673" s="63"/>
       <c r="C673" s="64"/>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" s="64" t="s">
         <v>193</v>
       </c>
       <c r="B674" s="63"/>
       <c r="C674" s="64"/>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" s="64" t="s">
         <v>193</v>
       </c>
       <c r="B675" s="63"/>
       <c r="C675" s="64"/>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" s="64" t="s">
         <v>193</v>
       </c>
       <c r="B676" s="63"/>
       <c r="C676" s="64"/>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" s="64" t="s">
         <v>193</v>
       </c>
       <c r="B677" s="63"/>
       <c r="C677" s="64"/>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" s="64" t="s">
         <v>193</v>
       </c>
       <c r="B678" s="63"/>
       <c r="C678" s="64"/>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" s="64" t="s">
         <v>193</v>
       </c>
       <c r="B679" s="63"/>
       <c r="C679" s="64"/>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" s="64" t="s">
         <v>193</v>
       </c>
       <c r="B680" s="63"/>
       <c r="C680" s="64"/>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" s="64" t="s">
         <v>193</v>
       </c>
       <c r="B681" s="63"/>
       <c r="C681" s="64"/>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" s="64" t="s">
         <v>193</v>
       </c>
       <c r="B682" s="63"/>
       <c r="C682" s="64"/>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" s="64" t="s">
         <v>193</v>
       </c>
       <c r="B683" s="63"/>
       <c r="C683" s="64"/>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" s="64" t="s">
         <v>194</v>
       </c>
       <c r="B684" s="63"/>
       <c r="C684" s="64"/>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" s="64" t="s">
         <v>194</v>
       </c>
       <c r="B685" s="63"/>
       <c r="C685" s="64"/>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" s="64" t="s">
         <v>194</v>
       </c>
       <c r="B686" s="63"/>
       <c r="C686" s="64"/>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" s="64" t="s">
         <v>194</v>
       </c>
       <c r="B687" s="63"/>
       <c r="C687" s="64"/>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" s="64" t="s">
         <v>194</v>
       </c>
       <c r="B688" s="63"/>
       <c r="C688" s="64"/>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" s="64" t="s">
         <v>194</v>
       </c>
       <c r="B689" s="63"/>
       <c r="C689" s="64"/>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" s="64" t="s">
         <v>194</v>
       </c>
       <c r="B690" s="63"/>
       <c r="C690" s="64"/>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" s="64" t="s">
         <v>194</v>
       </c>
       <c r="B691" s="63"/>
       <c r="C691" s="64"/>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" s="64" t="s">
         <v>194</v>
       </c>
       <c r="B692" s="63"/>
       <c r="C692" s="64"/>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" s="64" t="s">
         <v>194</v>
       </c>
       <c r="B693" s="63"/>
       <c r="C693" s="64"/>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" s="64" t="s">
         <v>194</v>
       </c>
       <c r="B694" s="63"/>
       <c r="C694" s="64"/>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" s="64" t="s">
         <v>194</v>
       </c>
       <c r="B695" s="63"/>
       <c r="C695" s="64"/>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" s="64" t="s">
         <v>195</v>
       </c>
       <c r="B696" s="63"/>
       <c r="C696" s="64"/>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" s="64" t="s">
         <v>195</v>
       </c>
       <c r="B697" s="63"/>
       <c r="C697" s="64"/>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" s="64" t="s">
         <v>195</v>
       </c>
       <c r="B698" s="63"/>
       <c r="C698" s="64"/>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" s="64" t="s">
         <v>195</v>
       </c>
       <c r="B699" s="63"/>
       <c r="C699" s="64"/>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B700" s="63"/>
       <c r="C700" s="64"/>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B701" s="63"/>
       <c r="C701" s="64"/>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B702" s="63"/>
       <c r="C702" s="64"/>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B703" s="63"/>
       <c r="C703" s="64"/>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B704" s="63"/>
       <c r="C704" s="64"/>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B705" s="63"/>
       <c r="C705" s="64"/>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B706" s="63"/>
       <c r="C706" s="64"/>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B707" s="63"/>
       <c r="C707" s="64"/>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B708" s="63"/>
       <c r="C708" s="64"/>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B709" s="63"/>
       <c r="C709" s="64"/>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B710" s="63"/>
       <c r="C710" s="64"/>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B711" s="63"/>
       <c r="C711" s="64"/>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B712" s="63"/>
       <c r="C712" s="64"/>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B713" s="63"/>
       <c r="C713" s="64"/>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B714" s="63"/>
       <c r="C714" s="64"/>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B715" s="63"/>
       <c r="C715" s="64"/>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B716" s="63"/>
       <c r="C716" s="64"/>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B717" s="63"/>
       <c r="C717" s="64"/>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B718" s="63"/>
       <c r="C718" s="64"/>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B719" s="63"/>
       <c r="C719" s="64"/>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B720" s="63"/>
       <c r="C720" s="64"/>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B721" s="63"/>
       <c r="C721" s="64"/>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B722" s="63"/>
       <c r="C722" s="64"/>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B723" s="63"/>
       <c r="C723" s="64"/>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B724" s="63"/>
       <c r="C724" s="64"/>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B725" s="63"/>
       <c r="C725" s="64"/>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" s="64" t="s">
         <v>196</v>
       </c>
       <c r="B726" s="63"/>
       <c r="C726" s="64"/>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" s="64" t="s">
         <v>197</v>
       </c>
       <c r="B727" s="63"/>
       <c r="C727" s="64"/>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" s="64" t="s">
         <v>197</v>
       </c>
       <c r="B728" s="63"/>
       <c r="C728" s="64"/>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" s="64" t="s">
         <v>197</v>
       </c>
       <c r="B729" s="63"/>
       <c r="C729" s="64"/>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" s="64" t="s">
         <v>197</v>
       </c>
       <c r="B730" s="63"/>
       <c r="C730" s="64"/>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" s="64" t="s">
         <v>197</v>
       </c>
       <c r="B731" s="63"/>
       <c r="C731" s="64"/>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" s="64" t="s">
         <v>198</v>
       </c>
       <c r="B732" s="63"/>
       <c r="C732" s="64"/>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" s="64" t="s">
         <v>198</v>
       </c>
       <c r="B733" s="63"/>
       <c r="C733" s="64"/>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" s="64" t="s">
         <v>198</v>
       </c>
       <c r="B734" s="63"/>
       <c r="C734" s="64"/>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" s="64" t="s">
         <v>198</v>
       </c>
       <c r="B735" s="63"/>
       <c r="C735" s="64"/>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" s="64" t="s">
         <v>198</v>
       </c>
       <c r="B736" s="63"/>
       <c r="C736" s="64"/>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" s="64" t="s">
         <v>198</v>
       </c>
       <c r="B737" s="63"/>
       <c r="C737" s="64"/>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" s="64" t="s">
         <v>198</v>
       </c>
       <c r="B738" s="63"/>
       <c r="C738" s="64"/>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" s="64" t="s">
         <v>198</v>
       </c>
       <c r="B739" s="63"/>
       <c r="C739" s="64"/>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" s="64" t="s">
         <v>198</v>
       </c>
       <c r="B740" s="63"/>
       <c r="C740" s="64"/>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A741" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B741" s="63"/>
       <c r="C741" s="64"/>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B742" s="63"/>
       <c r="C742" s="64"/>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B743" s="63"/>
       <c r="C743" s="64"/>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B744" s="63"/>
       <c r="C744" s="64"/>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B745" s="63"/>
       <c r="C745" s="64"/>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B746" s="63"/>
       <c r="C746" s="64"/>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A747" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B747" s="63"/>
       <c r="C747" s="64"/>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B748" s="63"/>
       <c r="C748" s="64"/>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B749" s="63"/>
       <c r="C749" s="64"/>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B750" s="63"/>
       <c r="C750" s="64"/>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B751" s="63"/>
       <c r="C751" s="64"/>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B752" s="63"/>
       <c r="C752" s="64"/>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B753" s="63"/>
       <c r="C753" s="64"/>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B754" s="63"/>
       <c r="C754" s="64"/>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B755" s="63"/>
       <c r="C755" s="64"/>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" s="64" t="s">
         <v>199</v>
       </c>
       <c r="B756" s="63"/>
       <c r="C756" s="64"/>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A757" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B757" s="63"/>
       <c r="C757" s="64"/>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B758" s="63"/>
       <c r="C758" s="64"/>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B759" s="63"/>
       <c r="C759" s="64"/>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B760" s="63"/>
       <c r="C760" s="64"/>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B761" s="63"/>
       <c r="C761" s="64"/>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B762" s="63"/>
       <c r="C762" s="64"/>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B763" s="63"/>
       <c r="C763" s="64"/>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B764" s="63"/>
       <c r="C764" s="64"/>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B765" s="63"/>
       <c r="C765" s="64"/>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B766" s="63"/>
       <c r="C766" s="64"/>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B767" s="63"/>
       <c r="C767" s="64"/>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B768" s="63"/>
       <c r="C768" s="64"/>
     </row>
-    <row r="769" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A769" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B769" s="63"/>
       <c r="C769" s="64"/>
     </row>
-    <row r="770" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A770" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B770" s="63"/>
       <c r="C770" s="64"/>
     </row>
-    <row r="771" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A771" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B771" s="63"/>
       <c r="C771" s="64"/>
     </row>
-    <row r="772" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A772" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B772" s="63"/>
       <c r="C772" s="64"/>
     </row>
-    <row r="773" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A773" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B773" s="63"/>
       <c r="C773" s="64"/>
     </row>
-    <row r="774" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A774" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B774" s="63"/>
       <c r="C774" s="64"/>
     </row>
-    <row r="775" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A775" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B775" s="63"/>
       <c r="C775" s="64"/>
     </row>
-    <row r="776" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A776" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B776" s="63"/>
       <c r="C776" s="64"/>
     </row>
-    <row r="777" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A777" s="64" t="s">
         <v>200</v>
       </c>
       <c r="B777" s="63"/>
       <c r="C777" s="64"/>
     </row>
-    <row r="778" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A778" s="64" t="s">
         <v>201</v>
       </c>
       <c r="B778" s="63"/>
       <c r="C778" s="64"/>
     </row>
-    <row r="779" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A779" s="64" t="s">
         <v>201</v>
       </c>
       <c r="B779" s="63"/>
       <c r="C779" s="64"/>
     </row>
-    <row r="780" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A780" s="64" t="s">
         <v>202</v>
       </c>
       <c r="B780" s="63"/>
       <c r="C780" s="64"/>
     </row>
-    <row r="781" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A781" s="64" t="s">
         <v>202</v>
       </c>
@@ -8657,7 +8668,7 @@
       <c r="L781" s="63"/>
       <c r="M781" s="64"/>
     </row>
-    <row r="782" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A782" s="64" t="s">
         <v>203</v>
       </c>
@@ -8667,7 +8678,7 @@
       <c r="L782" s="63"/>
       <c r="M782" s="64"/>
     </row>
-    <row r="783" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A783" s="64" t="s">
         <v>203</v>
       </c>
@@ -8677,7 +8688,7 @@
       <c r="L783" s="63"/>
       <c r="M783" s="64"/>
     </row>
-    <row r="784" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A784" s="64" t="s">
         <v>203</v>
       </c>
@@ -8687,7 +8698,7 @@
       <c r="L784" s="63"/>
       <c r="M784" s="64"/>
     </row>
-    <row r="785" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A785" s="64" t="s">
         <v>203</v>
       </c>
@@ -8697,7 +8708,7 @@
       <c r="L785" s="63"/>
       <c r="M785" s="64"/>
     </row>
-    <row r="786" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A786" s="64" t="s">
         <v>203</v>
       </c>
@@ -8707,7 +8718,7 @@
       <c r="L786" s="63"/>
       <c r="M786" s="64"/>
     </row>
-    <row r="787" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A787" s="64" t="s">
         <v>203</v>
       </c>
@@ -8717,7 +8728,7 @@
       <c r="L787" s="63"/>
       <c r="M787" s="64"/>
     </row>
-    <row r="788" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A788" s="64" t="s">
         <v>203</v>
       </c>
@@ -8727,7 +8738,7 @@
       <c r="L788" s="63"/>
       <c r="M788" s="64"/>
     </row>
-    <row r="789" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A789" s="64" t="s">
         <v>203</v>
       </c>
@@ -8737,221 +8748,221 @@
       <c r="L789" s="63"/>
       <c r="M789" s="64"/>
     </row>
-    <row r="790" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A790" s="64" t="s">
         <v>203</v>
       </c>
       <c r="B790" s="63"/>
       <c r="C790" s="64"/>
     </row>
-    <row r="791" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A791" s="64" t="s">
         <v>203</v>
       </c>
       <c r="B791" s="63"/>
       <c r="C791" s="64"/>
     </row>
-    <row r="792" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A792" s="61" t="s">
         <v>204</v>
       </c>
       <c r="B792" s="63"/>
       <c r="C792" s="64"/>
     </row>
-    <row r="793" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A793" s="61" t="s">
         <v>204</v>
       </c>
       <c r="B793" s="63"/>
       <c r="C793" s="64"/>
     </row>
-    <row r="794" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A794" s="61" t="s">
         <v>204</v>
       </c>
       <c r="B794" s="63"/>
       <c r="C794" s="64"/>
     </row>
-    <row r="795" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A795" s="61" t="s">
         <v>204</v>
       </c>
       <c r="B795" s="63"/>
       <c r="C795" s="64"/>
     </row>
-    <row r="796" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A796" s="61" t="s">
         <v>204</v>
       </c>
       <c r="B796" s="63"/>
       <c r="C796" s="64"/>
     </row>
-    <row r="797" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A797" s="61" t="s">
         <v>204</v>
       </c>
       <c r="B797" s="63"/>
       <c r="C797" s="64"/>
     </row>
-    <row r="798" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A798" s="61" t="s">
         <v>204</v>
       </c>
       <c r="B798" s="63"/>
       <c r="C798" s="64"/>
     </row>
-    <row r="799" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A799" s="64" t="s">
         <v>205</v>
       </c>
       <c r="B799" s="63"/>
       <c r="C799" s="64"/>
     </row>
-    <row r="800" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A800" s="64" t="s">
         <v>205</v>
       </c>
       <c r="B800" s="63"/>
       <c r="C800" s="64"/>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A801" s="64" t="s">
         <v>205</v>
       </c>
       <c r="B801" s="63"/>
       <c r="C801" s="64"/>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A802" s="64" t="s">
         <v>205</v>
       </c>
       <c r="B802" s="63"/>
       <c r="C802" s="64"/>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A803" s="64" t="s">
         <v>205</v>
       </c>
       <c r="B803" s="63"/>
       <c r="C803" s="64"/>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A804" s="61" t="s">
         <v>206</v>
       </c>
       <c r="B804" s="63"/>
       <c r="C804" s="66"/>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A805" s="61" t="s">
         <v>206</v>
       </c>
       <c r="B805" s="63"/>
       <c r="C805" s="64"/>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A806" s="61" t="s">
         <v>206</v>
       </c>
       <c r="B806" s="63"/>
       <c r="C806" s="64"/>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A807" s="61" t="s">
         <v>206</v>
       </c>
       <c r="B807" s="63"/>
       <c r="C807" s="64"/>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A808" s="61" t="s">
         <v>206</v>
       </c>
       <c r="B808" s="63"/>
       <c r="C808" s="64"/>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A809" s="61" t="s">
         <v>206</v>
       </c>
       <c r="B809" s="63"/>
       <c r="C809" s="64"/>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A810" s="61" t="s">
         <v>206</v>
       </c>
       <c r="B810" s="63"/>
       <c r="C810" s="64"/>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A811" s="64" t="s">
         <v>206</v>
       </c>
       <c r="B811" s="63"/>
       <c r="C811" s="64"/>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A812" s="61" t="s">
         <v>207</v>
       </c>
       <c r="B812" s="63"/>
       <c r="C812" s="66"/>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A813" s="61" t="s">
         <v>207</v>
       </c>
       <c r="B813" s="63"/>
       <c r="C813" s="64"/>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A814" s="61" t="s">
         <v>207</v>
       </c>
       <c r="B814" s="63"/>
       <c r="C814" s="64"/>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A815" s="61" t="s">
         <v>207</v>
       </c>
       <c r="B815" s="63"/>
       <c r="C815" s="64"/>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A816" s="64" t="s">
         <v>208</v>
       </c>
       <c r="B816" s="63"/>
       <c r="C816" s="64"/>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A817" s="64" t="s">
         <v>208</v>
       </c>
       <c r="B817" s="63"/>
       <c r="C817" s="64"/>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A818" s="61" t="s">
         <v>209</v>
       </c>
       <c r="B818" s="63"/>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A819" s="61" t="s">
         <v>209</v>
       </c>
       <c r="B819" s="63"/>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A820" s="61" t="s">
         <v>209</v>
       </c>
       <c r="B820" s="63"/>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A821" s="61" t="s">
         <v>209</v>
       </c>
@@ -8967,21 +8978,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.3984375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="45.375" style="6" customWidth="1"/>
     <col min="2" max="2" width="36.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.3984375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="6" customWidth="1"/>
     <col min="4" max="4" width="60" style="60" customWidth="1"/>
-    <col min="5" max="5" width="48.09765625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="48.125" style="6" customWidth="1"/>
     <col min="6" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>18</v>
       </c>
@@ -8998,7 +9009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>166</v>
       </c>
@@ -9006,7 +9017,7 @@
         <v>167</v>
       </c>
       <c r="C2" s="6">
-        <v>2021052003</v>
+        <v>2021071901</v>
       </c>
       <c r="D2" s="88" t="s">
         <v>300</v>
@@ -9015,7 +9026,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="D3" s="59"/>
     </row>
